--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{96CF5CFE-59E2-49C5-A076-2B24390C2C1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{80F393C9-2C1B-4224-A06A-82C852B96E95}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{96CF5CFE-59E2-49C5-A076-2B24390C2C1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EF98311F-A37E-473F-A3FF-48B0EFF17CA2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
@@ -939,14 +939,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A503" workbookViewId="0">
-      <selection activeCell="B482" sqref="B482"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5174,5 +5174,6 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Chile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AD956519-9444-461A-A298-61C12564A60D}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{351AD669-100F-462C-BE77-5AB794EE41E1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5784" yWindow="0" windowWidth="17220" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$559</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$562</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B559"/>
+  <dimension ref="A1:B562"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
-      <selection activeCell="B563" sqref="B563"/>
+      <selection activeCell="B565" sqref="B565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5407,6 +5407,30 @@
         <v>781.74</v>
       </c>
     </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A560" s="2">
+        <v>44023</v>
+      </c>
+      <c r="B560" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A561" s="2">
+        <v>44024</v>
+      </c>
+      <c r="B561" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A562" s="2">
+        <v>44025</v>
+      </c>
+      <c r="B562" s="3">
+        <v>790.82</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Chile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{351AD669-100F-462C-BE77-5AB794EE41E1}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F65BF3F7-8F0E-40F6-918B-3E80C1464272}"/>
   <bookViews>
-    <workbookView xWindow="5784" yWindow="0" windowWidth="17220" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5832" yWindow="0" windowWidth="17184" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$562</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$563</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B562"/>
+  <dimension ref="A1:B563"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
-      <selection activeCell="B565" sqref="B565"/>
+      <selection activeCell="B566" sqref="B566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5431,6 +5431,14 @@
         <v>790.82</v>
       </c>
     </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A563" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B563" s="3">
+        <v>788.22</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Chile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F65BF3F7-8F0E-40F6-918B-3E80C1464272}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A7D020E8-15FE-4CB1-87CF-BC2CB80BE699}"/>
   <bookViews>
-    <workbookView xWindow="5832" yWindow="0" windowWidth="17184" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8568" yWindow="696" windowWidth="15144" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$563</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$564</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B563"/>
+  <dimension ref="A1:B564"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
       <selection activeCell="B566" sqref="B566"/>
@@ -5439,6 +5439,14 @@
         <v>788.22</v>
       </c>
     </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A564" s="2">
+        <v>44027</v>
+      </c>
+      <c r="B564" s="3">
+        <v>787.87</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Chile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A7D020E8-15FE-4CB1-87CF-BC2CB80BE699}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E9FF7E26-29D1-4A48-B688-AB78C4EC9AE9}"/>
   <bookViews>
-    <workbookView xWindow="8568" yWindow="696" windowWidth="15144" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6468" yWindow="0" windowWidth="16524" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$564</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$566</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B564"/>
+  <dimension ref="A1:B566"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
-      <selection activeCell="B566" sqref="B566"/>
+      <selection activeCell="B568" sqref="B568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5447,6 +5447,22 @@
         <v>787.87</v>
       </c>
     </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A565" s="2">
+        <v>44028</v>
+      </c>
+      <c r="B565" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A566" s="2">
+        <v>44029</v>
+      </c>
+      <c r="B566" s="3">
+        <v>787.5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Chile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E9FF7E26-29D1-4A48-B688-AB78C4EC9AE9}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CC476FA1-CA32-471F-AAF3-5C4BF72DCBF8}"/>
   <bookViews>
-    <workbookView xWindow="6468" yWindow="0" windowWidth="16524" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6516" yWindow="0" windowWidth="16524" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$566</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$569</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B566"/>
+  <dimension ref="A1:B569"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A542" workbookViewId="0">
-      <selection activeCell="B568" sqref="B568"/>
+    <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
+      <selection activeCell="B570" sqref="B570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5463,6 +5463,30 @@
         <v>787.5</v>
       </c>
     </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A567" s="2">
+        <v>44030</v>
+      </c>
+      <c r="B567" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A568" s="2">
+        <v>44031</v>
+      </c>
+      <c r="B568" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A569" s="2">
+        <v>44032</v>
+      </c>
+      <c r="B569" s="3">
+        <v>787.26</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Chile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CC476FA1-CA32-471F-AAF3-5C4BF72DCBF8}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{28FE27B5-01CA-4E7F-BF46-A5E635094EDD}"/>
   <bookViews>
-    <workbookView xWindow="6516" yWindow="0" windowWidth="16524" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$569</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$570</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B569"/>
+  <dimension ref="A1:B570"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
-      <selection activeCell="B570" sqref="B570"/>
+      <selection activeCell="B572" sqref="B572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5487,6 +5487,14 @@
         <v>787.26</v>
       </c>
     </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A570" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B570" s="3">
+        <v>786.04</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Chile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{28FE27B5-01CA-4E7F-BF46-A5E635094EDD}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F324C252-22ED-4FC7-B725-4DB888146147}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$570</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$571</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B570"/>
+  <dimension ref="A1:B571"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
-      <selection activeCell="B572" sqref="B572"/>
+      <selection activeCell="B573" sqref="B573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5495,6 +5495,14 @@
         <v>786.04</v>
       </c>
     </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A571" s="2">
+        <v>44034</v>
+      </c>
+      <c r="B571" s="3">
+        <v>777.66</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Chile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F324C252-22ED-4FC7-B725-4DB888146147}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CDCD7E0C-84C1-4EA6-93E6-EAAD30F22A20}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="0" windowWidth="11544" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$571</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$572</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B571"/>
+  <dimension ref="A1:B572"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
-      <selection activeCell="B573" sqref="B573"/>
+      <selection activeCell="B574" sqref="B574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5503,6 +5503,14 @@
         <v>777.66</v>
       </c>
     </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A572" s="2">
+        <v>44035</v>
+      </c>
+      <c r="B572" s="3">
+        <v>769.06</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Chile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CDCD7E0C-84C1-4EA6-93E6-EAAD30F22A20}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A3D92239-A52D-4583-9EFC-B26122B5EEA0}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="0" windowWidth="11544" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$572</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$573</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B572"/>
+  <dimension ref="A1:B573"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
-      <selection activeCell="B574" sqref="B574"/>
+      <selection activeCell="B576" sqref="B576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5511,6 +5511,14 @@
         <v>769.06</v>
       </c>
     </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573" s="2">
+        <v>44036</v>
+      </c>
+      <c r="B573" s="3">
+        <v>767.17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Chile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A3D92239-A52D-4583-9EFC-B26122B5EEA0}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{17B8D2D8-7173-41CF-9ED5-6D34144DD675}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10128" yWindow="1248" windowWidth="12912" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$573</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$576</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B573"/>
+  <dimension ref="A1:B576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
-      <selection activeCell="B576" sqref="B576"/>
+      <selection activeCell="A579" sqref="A579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5519,6 +5519,30 @@
         <v>767.17</v>
       </c>
     </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A574" s="2">
+        <v>44037</v>
+      </c>
+      <c r="B574" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A575" s="2">
+        <v>44038</v>
+      </c>
+      <c r="B575" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A576" s="2">
+        <v>44039</v>
+      </c>
+      <c r="B576" s="3">
+        <v>768.63</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{17B8D2D8-7173-41CF-9ED5-6D34144DD675}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{2779362E-588B-4835-9B27-9D0AB18A01E1}"/>
   <bookViews>
-    <workbookView xWindow="10128" yWindow="1248" windowWidth="12912" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$576</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$577</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B576"/>
+  <dimension ref="A1:B577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
-      <selection activeCell="A579" sqref="A579"/>
+    <sheetView tabSelected="1" topLeftCell="A569" workbookViewId="0">
+      <selection activeCell="B581" sqref="B581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5543,6 +5543,14 @@
         <v>768.63</v>
       </c>
     </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A577" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B577" s="3">
+        <v>768.81</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{2779362E-588B-4835-9B27-9D0AB18A01E1}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{C011FB4A-0AC4-4DEC-9725-9B812A1BABDD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$577</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$578</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B577"/>
+  <dimension ref="A1:B578"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A569" workbookViewId="0">
-      <selection activeCell="B581" sqref="B581"/>
+      <selection activeCell="B582" sqref="B582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5551,6 +5551,14 @@
         <v>768.81</v>
       </c>
     </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A578" s="2">
+        <v>44041</v>
+      </c>
+      <c r="B578" s="3">
+        <v>767.82</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{C011FB4A-0AC4-4DEC-9725-9B812A1BABDD}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{747492B5-E655-4430-9EED-86B912026419}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$578</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$579</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B578"/>
+  <dimension ref="A1:B579"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A569" workbookViewId="0">
-      <selection activeCell="B582" sqref="B582"/>
+      <selection activeCell="B581" sqref="B581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5559,6 +5559,14 @@
         <v>767.82</v>
       </c>
     </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A579" s="2">
+        <v>44042</v>
+      </c>
+      <c r="B579" s="3">
+        <v>759.18</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{747492B5-E655-4430-9EED-86B912026419}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{56C442FD-F082-46BA-B5DC-BF6D3DA2667B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$579</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$580</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B579"/>
+  <dimension ref="A1:B580"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A569" workbookViewId="0">
-      <selection activeCell="B581" sqref="B581"/>
+      <selection activeCell="B583" sqref="B583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5567,6 +5567,14 @@
         <v>759.18</v>
       </c>
     </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A580" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B580" s="3">
+        <v>754.45</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{56C442FD-F082-46BA-B5DC-BF6D3DA2667B}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9120E324-4FEC-48FA-9EA2-90DE4F7CA2E3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8736" yWindow="0" windowWidth="14268" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$580</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$583</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B580"/>
+  <dimension ref="A1:B583"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A569" workbookViewId="0">
-      <selection activeCell="B583" sqref="B583"/>
+      <selection activeCell="B586" sqref="B586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5575,6 +5575,30 @@
         <v>754.45</v>
       </c>
     </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A581" s="2">
+        <v>44044</v>
+      </c>
+      <c r="B581" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A582" s="2">
+        <v>44045</v>
+      </c>
+      <c r="B582" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A583" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B583" s="3">
+        <v>757.06</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9120E324-4FEC-48FA-9EA2-90DE4F7CA2E3}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AA8612E1-CB67-494D-B501-684A090792BC}"/>
   <bookViews>
-    <workbookView xWindow="8736" yWindow="0" windowWidth="14268" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6840" yWindow="2640" windowWidth="15852" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$583</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$584</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B583"/>
+  <dimension ref="A1:B584"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A569" workbookViewId="0">
       <selection activeCell="B586" sqref="B586"/>
@@ -5599,6 +5599,14 @@
         <v>757.06</v>
       </c>
     </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A584" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B584" s="3">
+        <v>761.34</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AA8612E1-CB67-494D-B501-684A090792BC}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E3F900AA-0917-461A-812F-443EA7CE1B8E}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="2640" windowWidth="15852" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$584</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$585</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B584"/>
+  <dimension ref="A1:B585"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A569" workbookViewId="0">
-      <selection activeCell="B586" sqref="B586"/>
+      <selection activeCell="B587" sqref="B587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5607,6 +5607,14 @@
         <v>761.34</v>
       </c>
     </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A585" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B585" s="3">
+        <v>767.98</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E3F900AA-0917-461A-812F-443EA7CE1B8E}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E80AFB61-3CC7-4CE1-B20F-B061D8146CEA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1392" yWindow="2964" windowWidth="14436" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$585</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$586</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B585"/>
+  <dimension ref="A1:B586"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A569" workbookViewId="0">
-      <selection activeCell="B587" sqref="B587"/>
+    <sheetView tabSelected="1" topLeftCell="A578" workbookViewId="0">
+      <selection activeCell="B588" sqref="B588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5615,6 +5615,14 @@
         <v>767.98</v>
       </c>
     </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A586" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B586" s="3">
+        <v>774.82</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E80AFB61-3CC7-4CE1-B20F-B061D8146CEA}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BF0E699B-0629-402A-9D76-D12622E37B82}"/>
   <bookViews>
-    <workbookView xWindow="1392" yWindow="2964" windowWidth="14436" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$586</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$587</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B586"/>
+  <dimension ref="A1:B587"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A578" workbookViewId="0">
-      <selection activeCell="B588" sqref="B588"/>
+      <selection activeCell="B589" sqref="B589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5623,6 +5623,14 @@
         <v>774.82</v>
       </c>
     </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A587" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B587" s="3">
+        <v>777.18</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BF0E699B-0629-402A-9D76-D12622E37B82}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D76B761E-FFB2-4299-A78F-9A09E76EFFCC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$587</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$590</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B587"/>
+  <dimension ref="A1:B590"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A578" workbookViewId="0">
-      <selection activeCell="B589" sqref="B589"/>
+      <selection activeCell="B593" sqref="B593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5631,6 +5631,30 @@
         <v>777.18</v>
       </c>
     </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A588" s="2">
+        <v>44051</v>
+      </c>
+      <c r="B588" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589" s="2">
+        <v>44052</v>
+      </c>
+      <c r="B589" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A590" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B590" s="3">
+        <v>784.28</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D76B761E-FFB2-4299-A78F-9A09E76EFFCC}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EE15A79F-493C-4D0F-B891-3BF46920E5D0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$590</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$591</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B590"/>
+  <dimension ref="A1:B591"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A578" workbookViewId="0">
-      <selection activeCell="B593" sqref="B593"/>
+      <selection activeCell="B595" sqref="B595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5655,6 +5655,14 @@
         <v>784.28</v>
       </c>
     </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A591" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B591" s="3">
+        <v>796.58</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EE15A79F-493C-4D0F-B891-3BF46920E5D0}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6174338D-1136-41E4-B130-05494DC1FFBC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$591</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$592</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B591"/>
+  <dimension ref="A1:B592"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A578" workbookViewId="0">
-      <selection activeCell="B595" sqref="B595"/>
+      <selection activeCell="B592" sqref="B592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5663,6 +5663,14 @@
         <v>796.58</v>
       </c>
     </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A592" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B592" s="3">
+        <v>793.61</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6174338D-1136-41E4-B130-05494DC1FFBC}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A52185C3-9096-4051-A7CE-2C4191DABEC3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$592</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$593</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B592"/>
+  <dimension ref="A1:B593"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A578" workbookViewId="0">
-      <selection activeCell="B592" sqref="B592"/>
+      <selection activeCell="B596" sqref="B596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5671,6 +5671,14 @@
         <v>793.61</v>
       </c>
     </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A593" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B593" s="3">
+        <v>792.69</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A52185C3-9096-4051-A7CE-2C4191DABEC3}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3B89A267-34E0-4226-A4FB-ED433D75CF2A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$593</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$594</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B593"/>
+  <dimension ref="A1:B594"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A578" workbookViewId="0">
       <selection activeCell="B596" sqref="B596"/>
@@ -5679,6 +5679,14 @@
         <v>792.69</v>
       </c>
     </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A594" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B594" s="3">
+        <v>793.32</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3B89A267-34E0-4226-A4FB-ED433D75CF2A}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4BA17ED6-103C-4661-9ABA-45D8D57BCA20}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$594</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$597</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B594"/>
+  <dimension ref="A1:B597"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A578" workbookViewId="0">
-      <selection activeCell="B596" sqref="B596"/>
+      <selection activeCell="B599" sqref="B599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5687,6 +5687,30 @@
         <v>793.32</v>
       </c>
     </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A595" s="2">
+        <v>44058</v>
+      </c>
+      <c r="B595" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A596" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B596" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A597" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B597" s="3">
+        <v>796.73</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4BA17ED6-103C-4661-9ABA-45D8D57BCA20}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7518DCBC-50DE-40D2-9561-592363CC13D8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$597</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$598</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B597"/>
+  <dimension ref="A1:B598"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A578" workbookViewId="0">
-      <selection activeCell="B599" sqref="B599"/>
+    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
+      <selection activeCell="B601" sqref="B601"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5711,6 +5711,14 @@
         <v>796.73</v>
       </c>
     </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A598" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B598" s="3">
+        <v>803.4</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7518DCBC-50DE-40D2-9561-592363CC13D8}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FD2550FF-BB65-4964-8B7B-AF17DBC69C88}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="0" windowWidth="14904" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$598</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$599</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B598"/>
+  <dimension ref="A1:B599"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="B601" sqref="B601"/>
+      <selection activeCell="C602" sqref="C602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5719,6 +5719,14 @@
         <v>803.4</v>
       </c>
     </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A599" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B599" s="3">
+        <v>796.23</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FD2550FF-BB65-4964-8B7B-AF17DBC69C88}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{49806599-DDF3-45D7-B846-0D68E5C3CFE3}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="0" windowWidth="14904" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$599</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$600</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B599"/>
+  <dimension ref="A1:B600"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="C602" sqref="C602"/>
+      <selection activeCell="B602" sqref="B602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5727,6 +5727,14 @@
         <v>796.23</v>
       </c>
     </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A600" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B600" s="3">
+        <v>784.25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{49806599-DDF3-45D7-B846-0D68E5C3CFE3}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{67A2DAAD-F4FA-4F60-BFCF-27937355945B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$600</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$601</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B600"/>
+  <dimension ref="A1:B601"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="B602" sqref="B602"/>
+      <selection activeCell="B603" sqref="B603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5735,6 +5735,14 @@
         <v>784.25</v>
       </c>
     </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A601" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B601" s="3">
+        <v>785.84</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{67A2DAAD-F4FA-4F60-BFCF-27937355945B}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{15EE17CF-30D1-4633-A4E3-B73F94BD980B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$601</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$604</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B601"/>
+  <dimension ref="A1:B604"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="B603" sqref="B603"/>
+      <selection activeCell="A607" sqref="A607"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5743,6 +5743,30 @@
         <v>785.84</v>
       </c>
     </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A602" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B602" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A603" s="2">
+        <v>44066</v>
+      </c>
+      <c r="B603" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A604" s="2">
+        <v>44067</v>
+      </c>
+      <c r="B604" s="3">
+        <v>790.88</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{15EE17CF-30D1-4633-A4E3-B73F94BD980B}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9E7875ED-0941-4738-89E1-D0FF64DA7312}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11484" yWindow="0" windowWidth="11544" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$604</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$605</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B604"/>
+  <dimension ref="A1:B605"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="A607" sqref="A607"/>
+      <selection activeCell="B608" sqref="B608"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5767,6 +5767,14 @@
         <v>790.88</v>
       </c>
     </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A605" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B605" s="3">
+        <v>786.17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9E7875ED-0941-4738-89E1-D0FF64DA7312}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A991C7D5-79D8-48FC-8525-2FDFA4E78412}"/>
   <bookViews>
-    <workbookView xWindow="11484" yWindow="0" windowWidth="11544" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$605</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$606</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B605"/>
+  <dimension ref="A1:B606"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
       <selection activeCell="B608" sqref="B608"/>
@@ -5775,6 +5775,14 @@
         <v>786.17</v>
       </c>
     </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B606" s="3">
+        <v>784.44</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A991C7D5-79D8-48FC-8525-2FDFA4E78412}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D5171149-78A9-4B20-8DE2-854A7348C4A5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$606</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$607</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B606"/>
+  <dimension ref="A1:B607"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="B608" sqref="B608"/>
+      <selection activeCell="B609" sqref="B609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5783,6 +5783,14 @@
         <v>784.44</v>
       </c>
     </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A607" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B607" s="3">
+        <v>786.91</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D5171149-78A9-4B20-8DE2-854A7348C4A5}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3295FE36-4E25-4B0D-AF64-10D8C6EC87CF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$607</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$608</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B607"/>
+  <dimension ref="A1:B608"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="B609" sqref="B609"/>
+      <selection activeCell="B610" sqref="B610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5791,6 +5791,14 @@
         <v>786.91</v>
       </c>
     </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A608" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B608" s="3">
+        <v>784.27</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3295FE36-4E25-4B0D-AF64-10D8C6EC87CF}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AD935731-E8BC-437B-99A0-4739175159B7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$608</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$611</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B608"/>
+  <dimension ref="A1:B611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="B610" sqref="B610"/>
+    <sheetView tabSelected="1" topLeftCell="A599" workbookViewId="0">
+      <selection activeCell="B615" sqref="B615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5799,6 +5799,30 @@
         <v>784.27</v>
       </c>
     </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A609" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B609" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A610" s="2">
+        <v>44073</v>
+      </c>
+      <c r="B610" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A611" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B611" s="3">
+        <v>779.92</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AD935731-E8BC-437B-99A0-4739175159B7}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{59187C11-6208-477F-961E-800C3FA6F1CA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$611</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$612</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B611"/>
+  <dimension ref="A1:B612"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A599" workbookViewId="0">
-      <selection activeCell="B615" sqref="B615"/>
+      <selection activeCell="B617" sqref="B617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5823,6 +5823,14 @@
         <v>779.92</v>
       </c>
     </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A612" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B612" s="3">
+        <v>776.46</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{59187C11-6208-477F-961E-800C3FA6F1CA}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C172E11D-12EB-4D94-A154-60B2BE3263F6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -930,7 +930,7 @@
   <dimension ref="A1:B612"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A599" workbookViewId="0">
-      <selection activeCell="B617" sqref="B617"/>
+      <selection activeCell="B615" sqref="B615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C172E11D-12EB-4D94-A154-60B2BE3263F6}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{23AD80C7-3E78-4F1D-88B1-00B7122626E3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$612</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$614</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B612"/>
+  <dimension ref="A1:B614"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A599" workbookViewId="0">
-      <selection activeCell="B615" sqref="B615"/>
+      <selection activeCell="B616" sqref="B616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5831,6 +5831,22 @@
         <v>776.46</v>
       </c>
     </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A613" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B613" s="3">
+        <v>770.59</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A614" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B614" s="3">
+        <v>771.45</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{23AD80C7-3E78-4F1D-88B1-00B7122626E3}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ACEB13CD-7F66-4D03-AEB5-3F52E6BCA971}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$614</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$615</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B614"/>
+  <dimension ref="A1:B615"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A599" workbookViewId="0">
-      <selection activeCell="B616" sqref="B616"/>
+      <selection activeCell="B618" sqref="B618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5847,6 +5847,14 @@
         <v>771.45</v>
       </c>
     </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A615" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B615" s="3">
+        <v>773.71</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ACEB13CD-7F66-4D03-AEB5-3F52E6BCA971}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CC440E4E-42ED-4D13-B628-1B4C150ADE65}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$615</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$618</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B615"/>
+  <dimension ref="A1:B618"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A599" workbookViewId="0">
-      <selection activeCell="B618" sqref="B618"/>
+      <selection activeCell="B615" sqref="B615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5855,6 +5855,30 @@
         <v>773.71</v>
       </c>
     </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A616" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B616" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A617" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B617" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A618" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B618" s="3">
+        <v>773.76</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CC440E4E-42ED-4D13-B628-1B4C150ADE65}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{23FD4E71-B894-498E-89DB-B24248C07551}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$618</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$619</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B618"/>
+  <dimension ref="A1:B619"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A599" workbookViewId="0">
-      <selection activeCell="B615" sqref="B615"/>
+    <sheetView tabSelected="1" topLeftCell="A608" workbookViewId="0">
+      <selection activeCell="B622" sqref="B622"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5879,6 +5879,14 @@
         <v>773.76</v>
       </c>
     </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A619" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B619" s="3">
+        <v>773.24</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{23FD4E71-B894-498E-89DB-B24248C07551}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0D4E017A-1ABE-4224-996E-011B4EA49F88}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$619</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$620</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B619"/>
+  <dimension ref="A1:B620"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A608" workbookViewId="0">
       <selection activeCell="B622" sqref="B622"/>
@@ -5887,6 +5887,14 @@
         <v>773.24</v>
       </c>
     </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A620" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B620" s="3">
+        <v>776.65</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0D4E017A-1ABE-4224-996E-011B4EA49F88}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FC2223E8-242B-4E73-83D3-DDDF3B1C323A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$620</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$621</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B620"/>
+  <dimension ref="A1:B621"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A608" workbookViewId="0">
-      <selection activeCell="B622" sqref="B622"/>
+      <selection activeCell="B623" sqref="B623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5895,6 +5895,14 @@
         <v>776.65</v>
       </c>
     </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A621" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B621" s="3">
+        <v>767.87</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FC2223E8-242B-4E73-83D3-DDDF3B1C323A}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D9B9BE50-05EA-4106-BDFB-49FA29893B86}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6936" yWindow="0" windowWidth="16104" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$621</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$622</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B621"/>
+  <dimension ref="A1:B622"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A608" workbookViewId="0">
-      <selection activeCell="B623" sqref="B623"/>
+      <selection activeCell="B624" sqref="B624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5903,6 +5903,14 @@
         <v>767.87</v>
       </c>
     </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B622" s="3">
+        <v>764.99</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D9B9BE50-05EA-4106-BDFB-49FA29893B86}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E57204AB-F43E-422A-B153-F7AE3CFF9F07}"/>
   <bookViews>
-    <workbookView xWindow="6936" yWindow="0" windowWidth="16104" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$622</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$625</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B622"/>
+  <dimension ref="A1:B625"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A608" workbookViewId="0">
-      <selection activeCell="B624" sqref="B624"/>
+      <selection activeCell="B627" sqref="B627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5911,6 +5911,30 @@
         <v>764.99</v>
       </c>
     </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A623" s="2">
+        <v>44086</v>
+      </c>
+      <c r="B623" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A624" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B624" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A625" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B625" s="3">
+        <v>768.34</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E57204AB-F43E-422A-B153-F7AE3CFF9F07}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C1759809-1181-4A1F-B0D3-C4FCB0A2D885}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$625</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$626</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B625"/>
+  <dimension ref="A1:B626"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A608" workbookViewId="0">
-      <selection activeCell="B627" sqref="B627"/>
+    <sheetView tabSelected="1" topLeftCell="A614" workbookViewId="0">
+      <selection activeCell="B628" sqref="B628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5935,6 +5935,14 @@
         <v>768.34</v>
       </c>
     </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A626" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B626" s="3">
+        <v>767.01</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Chile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C1759809-1181-4A1F-B0D3-C4FCB0A2D885}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4BDB719B-E97E-4E59-AD30-133D54650E5B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$626</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$627</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,25 +927,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B626"/>
+  <dimension ref="A1:B627"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A614" workbookViewId="0">
-      <selection activeCell="B628" sqref="B628"/>
+      <selection activeCell="B626" sqref="B626"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -953,13 +953,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43467</v>
       </c>
@@ -967,7 +967,7 @@
         <v>694.77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43468</v>
       </c>
@@ -975,7 +975,7 @@
         <v>697.09</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43469</v>
       </c>
@@ -983,7 +983,7 @@
         <v>697.64</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43470</v>
       </c>
@@ -991,7 +991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43471</v>
       </c>
@@ -999,7 +999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43472</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>688.42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43473</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>679.69</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43474</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>680.1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43475</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>678.09</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43476</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>677.58</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43477</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43478</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43479</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>675.15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43480</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>674.95</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43481</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>673.76</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43482</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>672.73</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43483</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>671.37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43484</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43485</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43486</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>670.1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43487</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>672.42</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43488</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>672.26</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43489</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>672.41</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43490</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>672.14</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43491</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43492</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43493</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>667.04</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43494</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>671.29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43495</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>669.6</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43496</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>666.76</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43497</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>657.81</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43498</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43499</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43500</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>655.39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43501</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>653.79999999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43502</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>652.78</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43503</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>653.9</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43504</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>654.44000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43505</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43506</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43507</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>656.46</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43508</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>660.82</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43509</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>660.49</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43510</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>661.6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43511</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>665.9</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43512</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43513</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43514</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>663.98</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43515</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>660.82</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43516</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>658.75</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43517</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>654.52</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43518</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>654.33000000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43519</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43520</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43521</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>651.36</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43522</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>649.22</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43523</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>649.79999999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>43524</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>649.91999999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43525</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>651.79</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43526</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43527</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43528</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>656.57</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43529</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>659.07</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>43530</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>657.49</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>43531</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>658.4</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43532</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>662.19</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43533</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>43534</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>43535</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>670.83</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43536</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>669.37</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>43537</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>667.09</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>43538</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>665.68</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>43539</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>670.62</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>43540</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>43541</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43542</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>669.39</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>43543</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>667.21</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>43544</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>664.78</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>43545</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>666.13</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43546</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>665.12</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43547</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>43548</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>43549</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>676.6</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>43550</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>679.08</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>43551</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>679.02</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>43552</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>683.73</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>43553</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>681.09</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>43554</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>43555</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>43556</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>678.53</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>43557</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>672.56</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>43558</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>670.05</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>43559</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>667.55</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>43560</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>666.32</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>43561</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>43562</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>43563</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>664.17</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>43564</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>663.01</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>43565</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>663.15</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>43566</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>662.92</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>43567</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>664.19</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>43568</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>43569</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>43570</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>660.67</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>43571</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>662.86</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>43572</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>663.98</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>43573</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>660.48</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>43574</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>43575</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>43576</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>43577</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>662.27</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>43578</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>663.91</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>43579</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>668.19</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>43580</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>672.83</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>43581</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>676.21</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>43582</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>43583</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>43584</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>673.86</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>43585</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>677.67</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>43586</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>43587</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>678.71</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>43588</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>683.31</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>43589</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>43590</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>43591</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>678.68</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>43592</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>681.09</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>43593</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>683.49</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>43594</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>684.51</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>43595</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>686.43</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>43596</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>43597</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>43598</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>685.67</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>43599</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>693.04</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>43600</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>692.33</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>43601</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>692.62</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>43602</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>692.79</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>43603</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>43604</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>43605</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>696.61</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>43606</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>43607</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>697.23</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>43608</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>696.7</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>43609</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>698.03</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>43610</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>43611</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>43612</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>694.84</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>43613</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>696.46</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>43614</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>703.48</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>43615</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>708.2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>43616</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>707.86</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>43617</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>43618</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>43619</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>709.8</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>43620</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>704.59</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>43621</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>696.78</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>43622</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>693.25</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>43623</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>692.21</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>43624</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>43625</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>43626</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>692.28</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>43627</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>697.34</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>43628</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>693.6</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>43629</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>694.89</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>43630</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>696.25</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>43631</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>43632</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>43633</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>698.72</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>43634</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>699.52</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>43635</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>696.81</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>43636</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>693.99</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>43637</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>684.19</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>43638</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>43639</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>43640</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>683.41</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>43641</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>682.31</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>43642</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>678.32</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>43643</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>680.06</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>43644</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>679.86</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>43645</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>43646</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>43647</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>679.15</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>43648</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>677.62</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>43649</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>681.3</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>43650</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>680.48</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>43651</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>677.64</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>43652</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>43653</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>43654</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>683.12</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>43655</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>685.83</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>43656</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>688.88</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>43657</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>685.4</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>43658</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>683.38</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>43659</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>43660</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>43661</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>681.07</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>43662</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>43663</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>679.48</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>43664</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>681.69</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>43665</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>683.27</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>43666</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>43667</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>43668</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>685.81</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>43669</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>688.28</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>43670</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>691.57</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>43671</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>691.36</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>43672</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>694.16</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>43673</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>43674</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>43675</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>696.62</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>43676</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>697.22</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>43677</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>699.98</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>43678</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>700.82</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>43679</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>704.88</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>43680</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>43681</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>43682</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>711.13</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>43683</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>721.7</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>43684</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>716.35</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>43685</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>718.55</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>43686</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>710.98</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>43687</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>43688</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>43689</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>712.04</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>43690</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>716.69</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>43691</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>708.37</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>43692</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>43693</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>710.14</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>43694</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>43695</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>43696</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>709.26</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>43697</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>711.94</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>43698</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>710.63</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>43699</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>709.52</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>43700</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>713.22</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>43701</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>43702</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>43703</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>716.4</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>43704</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>718.75</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>43705</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>721.55</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>43706</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>724.2</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>43707</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>720.65</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>43708</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>43709</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>43710</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>720.2</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>43711</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>724.72</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>43712</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>725.69</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>43713</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>723.3</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>43714</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>717.52</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>43715</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>43716</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>43717</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>711.22</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>43718</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>713.72</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>43719</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>714.77</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>43720</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>714.39</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>43721</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>711.29</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>43722</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>43723</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>43724</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>707.07</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>43725</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>709.81</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>43726</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>43727</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>43728</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>43729</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>43730</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>43731</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>715.24</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>43732</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>722.17</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>43733</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>721.92</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>43734</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>727.08</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>43735</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>726.17</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>43736</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>43737</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>43738</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>725.68</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>43739</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>728.21</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>43740</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>729.38</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>43741</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>727.8</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>43742</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>719.53</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>43743</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>43744</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>43745</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>715.53</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>43746</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>717.05</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>43747</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>722.28</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>43748</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>724.27</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>43749</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>720.61</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>43750</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>43751</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>43752</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>712.98</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>43753</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>712.04</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>43754</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>715.48</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>43755</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>718.69</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>43756</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>713.23</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>43757</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>43758</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>43759</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>709.71</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>43760</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>723.52</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>43761</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>726.24</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>43762</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>726.15</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>43763</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>723.43</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>43764</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>43765</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>43766</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>725.87</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>43767</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>724.37</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>43768</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>726.34</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>43769</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>43770</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>43771</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>43772</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>43773</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>735.05</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>43774</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>736.66</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>43775</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>745.85</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>43776</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>743.65</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>43777</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>740.23</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>43778</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>43779</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>43780</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>746.23</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>43781</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>756.08</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>43782</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>783.72</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>43783</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>794.51</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>43784</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>801.83</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>43785</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>43786</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>43787</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>782.82</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>43788</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>773.81</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>43789</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>782.71</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>43790</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>797.17</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>43791</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>795.14</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>43792</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>43793</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>43794</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>795.94</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>43795</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>791.16</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>43796</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>793.49</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>43797</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>806.3</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>43798</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>828.25</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>43799</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>43800</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>43801</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>812.13</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>43802</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>804.29</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>43803</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>802.44</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>43804</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>796.75</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>43805</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>784.25</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>43806</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>43807</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>43808</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>779.04</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>43809</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>771.29</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>43810</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>778.14</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>43811</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>772.93</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>43812</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>768.69</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>43813</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>43814</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>43815</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>766.76</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>43816</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>762.83</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>43817</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>756.95</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>43818</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>752.3</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>43819</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>752.6</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>43820</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>43821</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>43822</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>749.83</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>43823</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>754.27</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>43824</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>43825</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>751.04</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>43826</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>746.66</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>43827</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>43828</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>43829</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>744.62</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>43830</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>43831</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>43832</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>748.74</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>43833</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>754.16</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>43834</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>43835</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>43836</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>758.49</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>43837</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>771.82</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>43838</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>773.12</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>43839</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>766.83</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>43840</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>764.69</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>43841</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>43842</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>43843</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>770.56</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>43844</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>777.66</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>43845</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>772.29</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>43846</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>772.01</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>43847</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>773.36</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>43848</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>43849</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>43850</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>771.38</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>43851</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>769.93</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>43852</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>770.5</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>43853</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>772.12</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>43854</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>771.94</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>43855</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>43856</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>43857</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>776.52</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>43858</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>787.86</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>43859</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>788.13</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>43860</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>788.18</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>43861</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>797.96</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>43862</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>43863</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>43864</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>799.11</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>43865</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>790.92</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>43866</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>781.78</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>43867</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>776.99</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>43868</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>779.12</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>43869</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>43870</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>43871</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>788.8</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>43872</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>795.88</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>43873</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>792.48</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>43874</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>788.33</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>43875</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>795.12</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>43876</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>43877</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>43878</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>792.73</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>43879</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>791.95</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>43880</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>796.9</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>43881</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>797.4</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>43882</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>804.74</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>43883</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>43884</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>43885</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>809.82</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>43886</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>810.2</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>43887</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>807.96</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>43888</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>811.1</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>43889</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>816.26</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>43890</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>43891</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>43892</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>818.32</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>43893</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>817.45</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>43894</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>809.81</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>43895</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>812.19</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>43896</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>823.28</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>43897</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>43898</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>43899</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>828.95</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>43900</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>841.06</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>43901</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>834.22</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>43902</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>835.48</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>43903</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>852.06</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>43904</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>43905</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>43906</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>836.66</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>43907</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>850.51</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>43908</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>855.09</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>43909</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>862.69</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>43910</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>867.83</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>43911</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>43912</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>43913</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>851.01</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>43914</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>861.07</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>43915</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>847.04</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>43916</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>843.96</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>43917</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>836.05</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>43918</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>43919</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>43920</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>835.23</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>43921</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>846.3</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>43922</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>852.03</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>43923</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>863.81</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>43924</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>861.89</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>43925</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>43926</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>43927</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>863.99</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>43928</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>853.91</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>43929</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>842.05</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>43930</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>851.9</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>43931</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>43932</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>43933</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>43934</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>839.49</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>43935</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>844.57</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>43936</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>848.63</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>43937</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>859.31</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>43938</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>852.52</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>43939</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>43940</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>43941</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>849.45</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>43942</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>856.23</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>43943</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>862.06</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>43944</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>856.51</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>43945</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>858.87</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>43946</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>43947</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>43948</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>859.95</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>43949</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>856.76</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>43950</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>850.41</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>43951</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>836.62</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>43952</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>43953</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>43954</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>43955</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>837.92</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>43956</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>838.74</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>43957</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>832.84</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>43958</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>839.08</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>43959</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>836.27</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>43960</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>43961</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>43962</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>827.65</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>43963</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>826.05</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>43964</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>821.88</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>43965</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>820.38</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>43966</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>822.93</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>43967</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>43968</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
         <v>43969</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>823.86</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
         <v>43970</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>820.65</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>43971</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>819.08</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
         <v>43972</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="2">
         <v>43973</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>806.17</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>43974</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>43975</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>43976</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>805.75</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>43977</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>803.74</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>43978</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>802.1</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>43979</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>816.47</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>43980</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>812.74</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>43981</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>43982</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>43983</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>806.32</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>43984</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>796.46</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>43985</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>782.86</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>43986</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>769.13</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>43987</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>775.58</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>43988</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>43989</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>43990</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>764.97</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>43991</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>769.26</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>43992</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>771.96</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>43993</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>767.93</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>43994</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>784.65</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>43995</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>43996</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
         <v>43997</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>790.73</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
         <v>43998</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>796.87</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
         <v>43999</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>779.1</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="2">
         <v>44000</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>798.53</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
         <v>44001</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>812.19</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="2">
         <v>44002</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="2">
         <v>44003</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="2">
         <v>44004</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>817.33</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="2">
         <v>44005</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>816.02</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="2">
         <v>44006</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>817.9</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="2">
         <v>44007</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>820.68</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="2">
         <v>44008</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>813.25</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="2">
         <v>44009</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="2">
         <v>44010</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="2">
         <v>44011</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
         <v>44012</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>816.36</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="2">
         <v>44013</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>821.23</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="2">
         <v>44014</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>816.29</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="2">
         <v>44015</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>803.98</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="2">
         <v>44016</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="2">
         <v>44017</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="2">
         <v>44018</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>801.46</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="2">
         <v>44019</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>798.79</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="2">
         <v>44020</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>793.88</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="2">
         <v>44021</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>786.18</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="2">
         <v>44022</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>781.74</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="2">
         <v>44023</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="2">
         <v>44024</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="2">
         <v>44025</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>790.82</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="2">
         <v>44026</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>788.22</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="2">
         <v>44027</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>787.87</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="2">
         <v>44028</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="2">
         <v>44029</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>787.5</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="2">
         <v>44030</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="2">
         <v>44031</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="2">
         <v>44032</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>787.26</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="2">
         <v>44033</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>786.04</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
         <v>44034</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>777.66</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="2">
         <v>44035</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>769.06</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="2">
         <v>44036</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>767.17</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="2">
         <v>44037</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="2">
         <v>44038</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="2">
         <v>44039</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>768.63</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="2">
         <v>44040</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>768.81</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="2">
         <v>44041</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>767.82</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="2">
         <v>44042</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>759.18</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
         <v>44043</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>754.45</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="2">
         <v>44044</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="2">
         <v>44045</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="2">
         <v>44046</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>757.06</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="2">
         <v>44047</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>761.34</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="2">
         <v>44048</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>767.98</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="2">
         <v>44049</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>774.82</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="2">
         <v>44050</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>777.18</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="2">
         <v>44051</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="2">
         <v>44052</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="2">
         <v>44053</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>784.28</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="2">
         <v>44054</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>796.58</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="2">
         <v>44055</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>793.61</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="2">
         <v>44056</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>792.69</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="2">
         <v>44057</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>793.32</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="2">
         <v>44058</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="2">
         <v>44059</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="2">
         <v>44060</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>796.73</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="2">
         <v>44061</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>803.4</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="2">
         <v>44062</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>796.23</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="2">
         <v>44063</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>784.25</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="2">
         <v>44064</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>785.84</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="2">
         <v>44065</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="2">
         <v>44066</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="2">
         <v>44067</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>790.88</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="2">
         <v>44068</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>786.17</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="2">
         <v>44069</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>784.44</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="2">
         <v>44070</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>786.91</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="2">
         <v>44071</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>784.27</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="2">
         <v>44072</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="2">
         <v>44073</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="2">
         <v>44074</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>779.92</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="2">
         <v>44075</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>776.46</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="2">
         <v>44076</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>770.59</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="2">
         <v>44077</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>771.45</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="2">
         <v>44078</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>773.71</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="2">
         <v>44079</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="2">
         <v>44080</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="2">
         <v>44081</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>773.76</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="2">
         <v>44082</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>773.24</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="2">
         <v>44083</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>776.65</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="2">
         <v>44084</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>767.87</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="2">
         <v>44085</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>764.99</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="2">
         <v>44086</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="2">
         <v>44087</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="2">
         <v>44088</v>
       </c>
@@ -5935,12 +5935,20 @@
         <v>768.34</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="2">
         <v>44089</v>
       </c>
       <c r="B626" s="3">
         <v>767.01</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B627" s="3">
+        <v>760.01</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/944d5b9328a00097/Proyectos/Data intelligence/Covid-19/Chile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4BDB719B-E97E-4E59-AD30-133D54650E5B}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0BEA353F-C9AC-4DF8-A443-C735088BD9BF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$627</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$628</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B627"/>
+  <dimension ref="A1:B628"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A614" workbookViewId="0">
-      <selection activeCell="B626" sqref="B626"/>
+      <selection activeCell="D625" sqref="D625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5951,6 +5951,14 @@
         <v>760.01</v>
       </c>
     </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B628" s="3">
+        <v>761.54</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0BEA353F-C9AC-4DF8-A443-C735088BD9BF}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{283AB556-C53C-4F15-9BEF-767A390194F0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$628</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$632</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B628"/>
+  <dimension ref="A1:B632"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A614" workbookViewId="0">
-      <selection activeCell="D625" sqref="D625"/>
+    <sheetView tabSelected="1" topLeftCell="A623" workbookViewId="0">
+      <selection activeCell="B635" sqref="B635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5959,6 +5959,38 @@
         <v>761.54</v>
       </c>
     </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B629" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B630" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B631" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B632" s="3">
+        <v>764.34</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{283AB556-C53C-4F15-9BEF-767A390194F0}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BDC02A4F-BB4B-45E8-BB49-4257F555C3F7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$632</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$633</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B632"/>
+  <dimension ref="A1:B633"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A623" workbookViewId="0">
-      <selection activeCell="B635" sqref="B635"/>
+      <selection activeCell="B636" sqref="B636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5991,6 +5991,14 @@
         <v>764.34</v>
       </c>
     </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B633" s="3">
+        <v>772.83</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BDC02A4F-BB4B-45E8-BB49-4257F555C3F7}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8ACA35AA-944B-469D-874D-F3C532A97449}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$633</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$634</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B633"/>
+  <dimension ref="A1:B634"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A623" workbookViewId="0">
       <selection activeCell="B636" sqref="B636"/>
@@ -5999,6 +5999,14 @@
         <v>772.83</v>
       </c>
     </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B634" s="3">
+        <v>773.4</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8ACA35AA-944B-469D-874D-F3C532A97449}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1DF0825B-5A58-4CA9-853C-8A268AFA2C1D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7395" yWindow="1125" windowWidth="13095" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$634</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$635</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B634"/>
+  <dimension ref="A1:B635"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A623" workbookViewId="0">
-      <selection activeCell="B636" sqref="B636"/>
+      <selection activeCell="B637" sqref="B637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6007,6 +6007,14 @@
         <v>773.4</v>
       </c>
     </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B635" s="3">
+        <v>781.44</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1DF0825B-5A58-4CA9-853C-8A268AFA2C1D}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{022A08D4-58D4-4A4D-AB40-D86655FB4DC1}"/>
   <bookViews>
-    <workbookView xWindow="7395" yWindow="1125" windowWidth="13095" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$635</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$636</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B635"/>
+  <dimension ref="A1:B636"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A623" workbookViewId="0">
-      <selection activeCell="B637" sqref="B637"/>
+      <selection activeCell="B639" sqref="B639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6015,6 +6015,14 @@
         <v>781.44</v>
       </c>
     </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636" s="2">
+        <v>44099</v>
+      </c>
+      <c r="B636" s="3">
+        <v>788.02</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{022A08D4-58D4-4A4D-AB40-D86655FB4DC1}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C51E312D-5C83-4101-9C89-6E9974EC98B3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$636</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$639</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B636"/>
+  <dimension ref="A1:B639"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A623" workbookViewId="0">
-      <selection activeCell="B639" sqref="B639"/>
+    <sheetView tabSelected="1" topLeftCell="A635" workbookViewId="0">
+      <selection activeCell="B643" sqref="B643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6023,6 +6023,30 @@
         <v>788.02</v>
       </c>
     </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637" s="2">
+        <v>44100</v>
+      </c>
+      <c r="B637" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638" s="2">
+        <v>44101</v>
+      </c>
+      <c r="B638" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" s="2">
+        <v>44102</v>
+      </c>
+      <c r="B639" s="3">
+        <v>787.15</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C51E312D-5C83-4101-9C89-6E9974EC98B3}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{36730CA3-7E07-458A-AD94-18326FFB085A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$639</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$640</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B639"/>
+  <dimension ref="A1:B640"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A635" workbookViewId="0">
       <selection activeCell="B643" sqref="B643"/>
@@ -6047,6 +6047,14 @@
         <v>787.15</v>
       </c>
     </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B640" s="3">
+        <v>784.19</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{36730CA3-7E07-458A-AD94-18326FFB085A}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7C6BF6CA-6595-4F83-86C8-DA6D1674E96F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$640</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$641</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B640"/>
+  <dimension ref="A1:B641"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A635" workbookViewId="0">
       <selection activeCell="B643" sqref="B643"/>
@@ -6055,6 +6055,14 @@
         <v>784.19</v>
       </c>
     </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B641" s="3">
+        <v>784.46</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7C6BF6CA-6595-4F83-86C8-DA6D1674E96F}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{71FC8B6A-2A6E-4D0E-9795-02A7DB6A4FD9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$641</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$642</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B641"/>
+  <dimension ref="A1:B642"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A635" workbookViewId="0">
-      <selection activeCell="B643" sqref="B643"/>
+      <selection activeCell="B641" sqref="B641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6063,6 +6063,14 @@
         <v>784.46</v>
       </c>
     </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B642" s="3">
+        <v>788.15</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{71FC8B6A-2A6E-4D0E-9795-02A7DB6A4FD9}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{33D2FA01-0999-4B04-BEB8-85327C5F5CCE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$642</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$643</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B642"/>
+  <dimension ref="A1:B643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A635" workbookViewId="0">
-      <selection activeCell="B641" sqref="B641"/>
+    <sheetView tabSelected="1" topLeftCell="A639" workbookViewId="0">
+      <selection activeCell="B646" sqref="B646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6071,6 +6071,14 @@
         <v>788.15</v>
       </c>
     </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643" s="2">
+        <v>44106</v>
+      </c>
+      <c r="B643" s="3">
+        <v>785.04</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{33D2FA01-0999-4B04-BEB8-85327C5F5CCE}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C45EF5C2-4D42-47AF-BF4B-B693E0BB8F48}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$643</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$646</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -927,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B643"/>
+  <dimension ref="A1:B646"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A639" workbookViewId="0">
       <selection activeCell="B646" sqref="B646"/>
@@ -6079,6 +6079,30 @@
         <v>785.04</v>
       </c>
     </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644" s="2">
+        <v>44107</v>
+      </c>
+      <c r="B644" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645" s="2">
+        <v>44108</v>
+      </c>
+      <c r="B645" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646" s="2">
+        <v>44109</v>
+      </c>
+      <c r="B646" s="3">
+        <v>790.81</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C45EF5C2-4D42-47AF-BF4B-B693E0BB8F48}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3024AA0B-0C96-4EB9-AFD4-520836306398}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$646</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$655</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B646"/>
+  <dimension ref="A1:B655"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A639" workbookViewId="0">
-      <selection activeCell="B646" sqref="B646"/>
+    <sheetView tabSelected="1" topLeftCell="A649" workbookViewId="0">
+      <selection activeCell="B658" sqref="B658"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6103,6 +6103,78 @@
         <v>790.81</v>
       </c>
     </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B647" s="3">
+        <v>794.34</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648" s="2">
+        <v>44111</v>
+      </c>
+      <c r="B648" s="3">
+        <v>797.35</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649" s="2">
+        <v>44112</v>
+      </c>
+      <c r="B649" s="3">
+        <v>795.05</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650" s="2">
+        <v>44113</v>
+      </c>
+      <c r="B650" s="3">
+        <v>797.25</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651" s="2">
+        <v>44114</v>
+      </c>
+      <c r="B651" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652" s="2">
+        <v>44115</v>
+      </c>
+      <c r="B652" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653" s="2">
+        <v>44116</v>
+      </c>
+      <c r="B653" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B654" s="3">
+        <v>796.05</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B655" s="3">
+        <v>797.66</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3024AA0B-0C96-4EB9-AFD4-520836306398}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{43456E14-DB13-42C9-9A5B-6F3DF669B8F8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$655</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$657</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B655"/>
+  <dimension ref="A1:B657"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A649" workbookViewId="0">
-      <selection activeCell="B658" sqref="B658"/>
+      <selection activeCell="B660" sqref="B660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6175,6 +6175,22 @@
         <v>797.66</v>
       </c>
     </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B656" s="3">
+        <v>798.56</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657" s="2">
+        <v>44120</v>
+      </c>
+      <c r="B657" s="3">
+        <v>801.91</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{43456E14-DB13-42C9-9A5B-6F3DF669B8F8}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E6DFE6C9-59A9-4A36-BD42-F3FC183CDA3F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$657</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$660</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B657"/>
+  <dimension ref="A1:B660"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A649" workbookViewId="0">
-      <selection activeCell="B660" sqref="B660"/>
+      <selection activeCell="B662" sqref="B662"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6191,6 +6191,30 @@
         <v>801.91</v>
       </c>
     </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658" s="2">
+        <v>44121</v>
+      </c>
+      <c r="B658" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659" s="2">
+        <v>44122</v>
+      </c>
+      <c r="B659" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660" s="2">
+        <v>44123</v>
+      </c>
+      <c r="B660" s="3">
+        <v>795.68</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E6DFE6C9-59A9-4A36-BD42-F3FC183CDA3F}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2AFF8357-9964-475E-8E5B-FE2B81087D66}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$660</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$661</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B660"/>
+  <dimension ref="A1:B661"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A649" workbookViewId="0">
       <selection activeCell="B662" sqref="B662"/>
@@ -6215,6 +6215,14 @@
         <v>795.68</v>
       </c>
     </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B661" s="3">
+        <v>788.27</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2AFF8357-9964-475E-8E5B-FE2B81087D66}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{53C1217C-3964-4C12-8B76-7DFC6BBCC65F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$661</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$662</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B661"/>
+  <dimension ref="A1:B662"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A649" workbookViewId="0">
-      <selection activeCell="B662" sqref="B662"/>
+    <sheetView tabSelected="1" topLeftCell="A655" workbookViewId="0">
+      <selection activeCell="B664" sqref="B664"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6223,6 +6223,14 @@
         <v>788.27</v>
       </c>
     </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B662" s="3">
+        <v>786.66</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{53C1217C-3964-4C12-8B76-7DFC6BBCC65F}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F8AF192C-1E4D-4572-849E-28751A3C2214}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$662</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$663</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B662"/>
+  <dimension ref="A1:B663"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A655" workbookViewId="0">
-      <selection activeCell="B664" sqref="B664"/>
+      <selection activeCell="B662" sqref="B662"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6231,6 +6231,14 @@
         <v>786.66</v>
       </c>
     </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663" s="2">
+        <v>44126</v>
+      </c>
+      <c r="B663" s="3">
+        <v>784.07</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F8AF192C-1E4D-4572-849E-28751A3C2214}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3F910BEF-684C-4A79-B735-492AA61E80E9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$663</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$664</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B663"/>
+  <dimension ref="A1:B664"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A655" workbookViewId="0">
-      <selection activeCell="B662" sqref="B662"/>
+      <selection activeCell="B664" sqref="B664"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6239,6 +6239,14 @@
         <v>784.07</v>
       </c>
     </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B664" s="3">
+        <v>781.41</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3F910BEF-684C-4A79-B735-492AA61E80E9}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{878B4BB8-4A90-4BDD-B684-B673B7A69A38}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$664</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$667</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -927,10 +927,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B664"/>
+  <dimension ref="A1:B667"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A655" workbookViewId="0">
-      <selection activeCell="B664" sqref="B664"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B665" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B667" sqref="B667"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6247,6 +6250,30 @@
         <v>781.41</v>
       </c>
     </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A665" s="2">
+        <v>44128</v>
+      </c>
+      <c r="B665" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A666" s="2">
+        <v>44129</v>
+      </c>
+      <c r="B666" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A667" s="2">
+        <v>44130</v>
+      </c>
+      <c r="B667" s="3">
+        <v>777.72</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{878B4BB8-4A90-4BDD-B684-B673B7A69A38}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DFAFB79E-3371-4946-8ABA-781E2412CF0E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="16185" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$667</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$668</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,13 +927,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B667"/>
+  <dimension ref="A1:B668"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B665" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B667" sqref="B667"/>
+      <selection pane="bottomRight" activeCell="B668" sqref="B668"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6274,6 +6274,14 @@
         <v>777.72</v>
       </c>
     </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A668" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B668" s="3">
+        <v>779.57</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DFAFB79E-3371-4946-8ABA-781E2412CF0E}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{697528FD-585C-4523-99A9-57C999D18650}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="16185" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$668</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$669</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,13 +927,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B668"/>
+  <dimension ref="A1:B669"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B665" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B668" sqref="B668"/>
+      <selection pane="bottomRight" activeCell="B669" sqref="B669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6282,6 +6282,14 @@
         <v>779.57</v>
       </c>
     </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A669" s="2">
+        <v>44132</v>
+      </c>
+      <c r="B669" s="3">
+        <v>772.05</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{697528FD-585C-4523-99A9-57C999D18650}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ABC83DE1-92E6-42E8-B831-035FF206AE6C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$669</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$670</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,13 +927,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B669"/>
+  <dimension ref="A1:B670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B665" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B669" sqref="B669"/>
+      <selection pane="bottomRight" activeCell="B670" sqref="B670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6290,6 +6290,14 @@
         <v>772.05</v>
       </c>
     </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A670" s="2">
+        <v>44133</v>
+      </c>
+      <c r="B670" s="3">
+        <v>775.56</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ABC83DE1-92E6-42E8-B831-035FF206AE6C}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C225FB2C-41A8-4265-A0EE-59B01DF9F135}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$670</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$671</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,13 +927,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B670"/>
+  <dimension ref="A1:B671"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B665" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B670" sqref="B670"/>
+      <selection pane="bottomRight" activeCell="B671" sqref="B671"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6298,6 +6298,14 @@
         <v>775.56</v>
       </c>
     </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A671" s="2">
+        <v>44134</v>
+      </c>
+      <c r="B671" s="3">
+        <v>770.45</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C225FB2C-41A8-4265-A0EE-59B01DF9F135}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BF662A59-052F-4E03-9047-95F5AEF5DCD0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$671</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$674</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -927,13 +927,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B671"/>
+  <dimension ref="A1:B674"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B665" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B659" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B671" sqref="B671"/>
+      <selection pane="bottomRight" activeCell="B674" sqref="B674"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6306,6 +6306,30 @@
         <v>770.45</v>
       </c>
     </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A672" s="2">
+        <v>44135</v>
+      </c>
+      <c r="B672" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A673" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B673" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A674" s="2">
+        <v>44137</v>
+      </c>
+      <c r="B674" s="3">
+        <v>771.92</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BF662A59-052F-4E03-9047-95F5AEF5DCD0}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4964F4A2-AD61-472E-ABCD-A1A95BBF5A2C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -938,8 +938,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4964F4A2-AD61-472E-ABCD-A1A95BBF5A2C}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6608BE5E-D8D9-417A-8A31-3A79CAE595DE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$674</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$677</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,19 +927,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B674"/>
+  <dimension ref="A1:B677"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B659" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B662" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B674" sqref="B674"/>
+      <selection pane="bottomRight" activeCell="B677" sqref="B677"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -6328,6 +6328,30 @@
       </c>
       <c r="B674" s="3">
         <v>771.92</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A675" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B675" s="3">
+        <v>769.17</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A676" s="2">
+        <v>44139</v>
+      </c>
+      <c r="B676" s="3">
+        <v>758.53</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677" s="2">
+        <v>44140</v>
+      </c>
+      <c r="B677" s="3">
+        <v>757.16</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6608BE5E-D8D9-417A-8A31-3A79CAE595DE}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2059CF24-B5C7-4AD0-9F94-878A550394FE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$677</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$678</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,13 +927,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B677"/>
+  <dimension ref="A1:B678"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B662" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B671" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B677" sqref="B677"/>
+      <selection pane="bottomRight" activeCell="B678" sqref="B678"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6354,6 +6354,14 @@
         <v>757.16</v>
       </c>
     </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A678" s="2">
+        <v>44141</v>
+      </c>
+      <c r="B678" s="3">
+        <v>752.01</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2059CF24-B5C7-4AD0-9F94-878A550394FE}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B896F2F0-116D-474A-97C0-F12B35DF1B78}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$678</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$681</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -927,13 +927,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B678"/>
+  <dimension ref="A1:B681"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B671" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B678" sqref="B678"/>
+      <selection pane="bottomRight" activeCell="B681" sqref="B681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6362,6 +6362,30 @@
         <v>752.01</v>
       </c>
     </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679" s="2">
+        <v>44142</v>
+      </c>
+      <c r="B679" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680" s="2">
+        <v>44143</v>
+      </c>
+      <c r="B680" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A681" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B681" s="3">
+        <v>759.25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="114_{4E138255-E71E-4AEB-A9EF-82D3D6322094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B896F2F0-116D-474A-97C0-F12B35DF1B78}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="14_{F2753A6D-642C-43B1-9D50-7716AF012233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EB69DD7D-6DC7-40C7-A6EB-3567AAC68B32}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$681</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$683</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -927,13 +927,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B681"/>
+  <dimension ref="A1:B683"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B671" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B681" sqref="B681"/>
+      <selection pane="bottomRight" activeCell="B683" sqref="B683"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6386,6 +6386,22 @@
         <v>759.25</v>
       </c>
     </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A682" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B682" s="3">
+        <v>753.75</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A683" s="2">
+        <v>44146</v>
+      </c>
+      <c r="B683" s="3">
+        <v>760.9</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="14_{F2753A6D-642C-43B1-9D50-7716AF012233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EB69DD7D-6DC7-40C7-A6EB-3567AAC68B32}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B2D90656-DD48-4ECD-BB23-8C8D4EDECED3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,21 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$683</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$762</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$762</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -35,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -56,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +214,21 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -504,7 +531,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -547,6 +574,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -569,7 +604,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="50">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -583,11 +618,17 @@
     <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1 2" xfId="42" xr:uid="{4385A8D2-651C-4773-80CB-11F47798F1CE}"/>
     <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2 2" xfId="43" xr:uid="{054221C2-13B6-4754-B0B6-C32A4E8A95AD}"/>
     <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3 2" xfId="44" xr:uid="{BB28A6FF-22BE-46E4-B116-00518D401B6E}"/>
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4 2" xfId="45" xr:uid="{D1C02AD5-7A4A-4764-935B-FAB4D7D87EE9}"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5 2" xfId="46" xr:uid="{9F6E8D91-7C00-42FF-8A7D-91C893DA4AB8}"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6 2" xfId="47" xr:uid="{1DF80BA0-24DE-4DA9-8EE2-A15003600F7C}"/>
     <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
@@ -603,6 +644,7 @@
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="48" xr:uid="{96B4E413-929F-4319-B3D6-5D1EF8AD0E76}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
@@ -611,6 +653,7 @@
     <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="49" xr:uid="{072D0298-5CC9-445D-BF36-9D06198D96B3}"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -927,19 +970,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B683"/>
+  <dimension ref="A1:B762"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B671" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B761" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B683" sqref="B683"/>
+      <selection pane="bottomRight" activeCell="B762" sqref="B762"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -6400,6 +6443,638 @@
       </c>
       <c r="B683" s="3">
         <v>760.9</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A684" s="2">
+        <v>44147</v>
+      </c>
+      <c r="B684" s="3">
+        <v>757.42</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A685" s="2">
+        <v>44148</v>
+      </c>
+      <c r="B685" s="3">
+        <v>757.43</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A686" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B686" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A687" s="2">
+        <v>44150</v>
+      </c>
+      <c r="B687" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A688" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B688" s="3">
+        <v>766.7</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689" s="2">
+        <v>44152</v>
+      </c>
+      <c r="B689" s="3">
+        <v>767.86</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690" s="2">
+        <v>44153</v>
+      </c>
+      <c r="B690" s="3">
+        <v>767.05</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691" s="2">
+        <v>44154</v>
+      </c>
+      <c r="B691" s="3">
+        <v>758.1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692" s="2">
+        <v>44155</v>
+      </c>
+      <c r="B692" s="3">
+        <v>758.62</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B693" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694" s="2">
+        <v>44157</v>
+      </c>
+      <c r="B694" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A695" s="2">
+        <v>44158</v>
+      </c>
+      <c r="B695" s="3">
+        <v>761.55</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696" s="2">
+        <v>44159</v>
+      </c>
+      <c r="B696" s="3">
+        <v>765.96</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697" s="2">
+        <v>44160</v>
+      </c>
+      <c r="B697" s="3">
+        <v>772.83</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698" s="2">
+        <v>44161</v>
+      </c>
+      <c r="B698" s="3">
+        <v>771.68</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A699" s="2">
+        <v>44162</v>
+      </c>
+      <c r="B699" s="3">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A700" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B700" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A701" s="2">
+        <v>44164</v>
+      </c>
+      <c r="B701" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A702" s="2">
+        <v>44165</v>
+      </c>
+      <c r="B702" s="3">
+        <v>766.69</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A703" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B703" s="3">
+        <v>767.29</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A704" s="2">
+        <v>44167</v>
+      </c>
+      <c r="B704" s="3">
+        <v>760.16</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A705" s="2">
+        <v>44168</v>
+      </c>
+      <c r="B705" s="3">
+        <v>755.34</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A706" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B706" s="3">
+        <v>752.03</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A707" s="2">
+        <v>44170</v>
+      </c>
+      <c r="B707" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A708" s="2">
+        <v>44171</v>
+      </c>
+      <c r="B708" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A709" s="2">
+        <v>44172</v>
+      </c>
+      <c r="B709" s="3">
+        <v>747.61</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A710" s="2">
+        <v>44173</v>
+      </c>
+      <c r="B710" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A711" s="2">
+        <v>44174</v>
+      </c>
+      <c r="B711" s="3">
+        <v>744.82</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A712" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B712" s="3">
+        <v>739.45</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A713" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B713" s="3">
+        <v>738.17</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A714" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B714" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A715" s="2">
+        <v>44178</v>
+      </c>
+      <c r="B715" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A716" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B716" s="3">
+        <v>733.55</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A717" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B717" s="3">
+        <v>731.58</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A718" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B718" s="3">
+        <v>734.23</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A719" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B719" s="3">
+        <v>735.09</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A720" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B720" s="3">
+        <v>723.44</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A721" s="2">
+        <v>44184</v>
+      </c>
+      <c r="B721" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A722" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B722" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A723" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B723" s="3">
+        <v>723.85</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A724" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B724" s="3">
+        <v>730.7</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A725" s="2">
+        <v>44188</v>
+      </c>
+      <c r="B725" s="3">
+        <v>728.96</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A726" s="2">
+        <v>44189</v>
+      </c>
+      <c r="B726" s="3">
+        <v>716.25</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A727" s="2">
+        <v>44190</v>
+      </c>
+      <c r="B727" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A728" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B728" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A729" s="2">
+        <v>44192</v>
+      </c>
+      <c r="B729" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A730" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B730" s="3">
+        <v>710.26</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A731" s="2">
+        <v>44194</v>
+      </c>
+      <c r="B731" s="3">
+        <v>710.64</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A732" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B732" s="3">
+        <v>711.24</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A733" s="2">
+        <v>44196</v>
+      </c>
+      <c r="B733" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A734" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B734" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A735" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B735" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A736" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B736" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A737" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B737" s="3">
+        <v>710.95</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A738" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B738" s="3">
+        <v>702.93</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A739" s="2">
+        <v>44202</v>
+      </c>
+      <c r="B739" s="3">
+        <v>702.29</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A740" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B740" s="3">
+        <v>696.18</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A741" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B741" s="3">
+        <v>709.99</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A742" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B742" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A743" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B743" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A744" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B744" s="3">
+        <v>713.28</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A745" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B745" s="3">
+        <v>718.89</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A746" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B746" s="3">
+        <v>725.24</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A747" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B747" s="3">
+        <v>739.72</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A748" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B748" s="3">
+        <v>735.35</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A749" s="2">
+        <v>44212</v>
+      </c>
+      <c r="B749" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A750" s="2">
+        <v>44213</v>
+      </c>
+      <c r="B750" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A751" s="2">
+        <v>44214</v>
+      </c>
+      <c r="B751" s="3">
+        <v>735.06</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A752" s="2">
+        <v>44215</v>
+      </c>
+      <c r="B752" s="3">
+        <v>736.11</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A753" s="2">
+        <v>44216</v>
+      </c>
+      <c r="B753" s="3">
+        <v>733.73</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A754" s="2">
+        <v>44217</v>
+      </c>
+      <c r="B754" s="3">
+        <v>730.38</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A755" s="2">
+        <v>44218</v>
+      </c>
+      <c r="B755" s="3">
+        <v>715.56</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A756" s="2">
+        <v>44219</v>
+      </c>
+      <c r="B756" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A757" s="2">
+        <v>44220</v>
+      </c>
+      <c r="B757" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A758" s="2">
+        <v>44221</v>
+      </c>
+      <c r="B758" s="3">
+        <v>724.26</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A759" s="2">
+        <v>44222</v>
+      </c>
+      <c r="B759" s="3">
+        <v>731.92</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A760" s="2">
+        <v>44223</v>
+      </c>
+      <c r="B760" s="3">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A761" s="2">
+        <v>44224</v>
+      </c>
+      <c r="B761" s="3">
+        <v>736.88</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A762" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B762" s="3">
+        <v>741.4</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B2D90656-DD48-4ECD-BB23-8C8D4EDECED3}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="14_{F2753A6D-642C-43B1-9D50-7716AF012233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EB69DD7D-6DC7-40C7-A6EB-3567AAC68B32}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,21 +16,9 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$762</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$762</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$683</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -47,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -68,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,21 +202,6 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -531,7 +504,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -574,14 +547,6 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -604,7 +569,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -618,17 +583,11 @@
     <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1 2" xfId="42" xr:uid="{4385A8D2-651C-4773-80CB-11F47798F1CE}"/>
     <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2 2" xfId="43" xr:uid="{054221C2-13B6-4754-B0B6-C32A4E8A95AD}"/>
     <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3 2" xfId="44" xr:uid="{BB28A6FF-22BE-46E4-B116-00518D401B6E}"/>
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4 2" xfId="45" xr:uid="{D1C02AD5-7A4A-4764-935B-FAB4D7D87EE9}"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5 2" xfId="46" xr:uid="{9F6E8D91-7C00-42FF-8A7D-91C893DA4AB8}"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6 2" xfId="47" xr:uid="{1DF80BA0-24DE-4DA9-8EE2-A15003600F7C}"/>
     <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
@@ -644,7 +603,6 @@
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Neutral 2" xfId="48" xr:uid="{96B4E413-929F-4319-B3D6-5D1EF8AD0E76}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
@@ -653,7 +611,6 @@
     <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="49" xr:uid="{072D0298-5CC9-445D-BF36-9D06198D96B3}"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -970,19 +927,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B762"/>
+  <dimension ref="A1:B683"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B761" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B671" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B762" sqref="B762"/>
+      <selection pane="bottomRight" activeCell="B683" sqref="B683"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -6443,638 +6400,6 @@
       </c>
       <c r="B683" s="3">
         <v>760.9</v>
-      </c>
-    </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A684" s="2">
-        <v>44147</v>
-      </c>
-      <c r="B684" s="3">
-        <v>757.42</v>
-      </c>
-    </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A685" s="2">
-        <v>44148</v>
-      </c>
-      <c r="B685" s="3">
-        <v>757.43</v>
-      </c>
-    </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A686" s="2">
-        <v>44149</v>
-      </c>
-      <c r="B686" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A687" s="2">
-        <v>44150</v>
-      </c>
-      <c r="B687" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A688" s="2">
-        <v>44151</v>
-      </c>
-      <c r="B688" s="3">
-        <v>766.7</v>
-      </c>
-    </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A689" s="2">
-        <v>44152</v>
-      </c>
-      <c r="B689" s="3">
-        <v>767.86</v>
-      </c>
-    </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A690" s="2">
-        <v>44153</v>
-      </c>
-      <c r="B690" s="3">
-        <v>767.05</v>
-      </c>
-    </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A691" s="2">
-        <v>44154</v>
-      </c>
-      <c r="B691" s="3">
-        <v>758.1</v>
-      </c>
-    </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A692" s="2">
-        <v>44155</v>
-      </c>
-      <c r="B692" s="3">
-        <v>758.62</v>
-      </c>
-    </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A693" s="2">
-        <v>44156</v>
-      </c>
-      <c r="B693" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A694" s="2">
-        <v>44157</v>
-      </c>
-      <c r="B694" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A695" s="2">
-        <v>44158</v>
-      </c>
-      <c r="B695" s="3">
-        <v>761.55</v>
-      </c>
-    </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A696" s="2">
-        <v>44159</v>
-      </c>
-      <c r="B696" s="3">
-        <v>765.96</v>
-      </c>
-    </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A697" s="2">
-        <v>44160</v>
-      </c>
-      <c r="B697" s="3">
-        <v>772.83</v>
-      </c>
-    </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A698" s="2">
-        <v>44161</v>
-      </c>
-      <c r="B698" s="3">
-        <v>771.68</v>
-      </c>
-    </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A699" s="2">
-        <v>44162</v>
-      </c>
-      <c r="B699" s="3">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A700" s="2">
-        <v>44163</v>
-      </c>
-      <c r="B700" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A701" s="2">
-        <v>44164</v>
-      </c>
-      <c r="B701" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A702" s="2">
-        <v>44165</v>
-      </c>
-      <c r="B702" s="3">
-        <v>766.69</v>
-      </c>
-    </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A703" s="2">
-        <v>44166</v>
-      </c>
-      <c r="B703" s="3">
-        <v>767.29</v>
-      </c>
-    </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A704" s="2">
-        <v>44167</v>
-      </c>
-      <c r="B704" s="3">
-        <v>760.16</v>
-      </c>
-    </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A705" s="2">
-        <v>44168</v>
-      </c>
-      <c r="B705" s="3">
-        <v>755.34</v>
-      </c>
-    </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A706" s="2">
-        <v>44169</v>
-      </c>
-      <c r="B706" s="3">
-        <v>752.03</v>
-      </c>
-    </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A707" s="2">
-        <v>44170</v>
-      </c>
-      <c r="B707" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A708" s="2">
-        <v>44171</v>
-      </c>
-      <c r="B708" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A709" s="2">
-        <v>44172</v>
-      </c>
-      <c r="B709" s="3">
-        <v>747.61</v>
-      </c>
-    </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A710" s="2">
-        <v>44173</v>
-      </c>
-      <c r="B710" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A711" s="2">
-        <v>44174</v>
-      </c>
-      <c r="B711" s="3">
-        <v>744.82</v>
-      </c>
-    </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A712" s="2">
-        <v>44175</v>
-      </c>
-      <c r="B712" s="3">
-        <v>739.45</v>
-      </c>
-    </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A713" s="2">
-        <v>44176</v>
-      </c>
-      <c r="B713" s="3">
-        <v>738.17</v>
-      </c>
-    </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A714" s="2">
-        <v>44177</v>
-      </c>
-      <c r="B714" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A715" s="2">
-        <v>44178</v>
-      </c>
-      <c r="B715" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A716" s="2">
-        <v>44179</v>
-      </c>
-      <c r="B716" s="3">
-        <v>733.55</v>
-      </c>
-    </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A717" s="2">
-        <v>44180</v>
-      </c>
-      <c r="B717" s="3">
-        <v>731.58</v>
-      </c>
-    </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A718" s="2">
-        <v>44181</v>
-      </c>
-      <c r="B718" s="3">
-        <v>734.23</v>
-      </c>
-    </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A719" s="2">
-        <v>44182</v>
-      </c>
-      <c r="B719" s="3">
-        <v>735.09</v>
-      </c>
-    </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A720" s="2">
-        <v>44183</v>
-      </c>
-      <c r="B720" s="3">
-        <v>723.44</v>
-      </c>
-    </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A721" s="2">
-        <v>44184</v>
-      </c>
-      <c r="B721" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A722" s="2">
-        <v>44185</v>
-      </c>
-      <c r="B722" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A723" s="2">
-        <v>44186</v>
-      </c>
-      <c r="B723" s="3">
-        <v>723.85</v>
-      </c>
-    </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A724" s="2">
-        <v>44187</v>
-      </c>
-      <c r="B724" s="3">
-        <v>730.7</v>
-      </c>
-    </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A725" s="2">
-        <v>44188</v>
-      </c>
-      <c r="B725" s="3">
-        <v>728.96</v>
-      </c>
-    </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A726" s="2">
-        <v>44189</v>
-      </c>
-      <c r="B726" s="3">
-        <v>716.25</v>
-      </c>
-    </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A727" s="2">
-        <v>44190</v>
-      </c>
-      <c r="B727" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A728" s="2">
-        <v>44191</v>
-      </c>
-      <c r="B728" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A729" s="2">
-        <v>44192</v>
-      </c>
-      <c r="B729" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A730" s="2">
-        <v>44193</v>
-      </c>
-      <c r="B730" s="3">
-        <v>710.26</v>
-      </c>
-    </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A731" s="2">
-        <v>44194</v>
-      </c>
-      <c r="B731" s="3">
-        <v>710.64</v>
-      </c>
-    </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A732" s="2">
-        <v>44195</v>
-      </c>
-      <c r="B732" s="3">
-        <v>711.24</v>
-      </c>
-    </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A733" s="2">
-        <v>44196</v>
-      </c>
-      <c r="B733" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A734" s="2">
-        <v>44197</v>
-      </c>
-      <c r="B734" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A735" s="2">
-        <v>44198</v>
-      </c>
-      <c r="B735" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A736" s="2">
-        <v>44199</v>
-      </c>
-      <c r="B736" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A737" s="2">
-        <v>44200</v>
-      </c>
-      <c r="B737" s="3">
-        <v>710.95</v>
-      </c>
-    </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A738" s="2">
-        <v>44201</v>
-      </c>
-      <c r="B738" s="3">
-        <v>702.93</v>
-      </c>
-    </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A739" s="2">
-        <v>44202</v>
-      </c>
-      <c r="B739" s="3">
-        <v>702.29</v>
-      </c>
-    </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A740" s="2">
-        <v>44203</v>
-      </c>
-      <c r="B740" s="3">
-        <v>696.18</v>
-      </c>
-    </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A741" s="2">
-        <v>44204</v>
-      </c>
-      <c r="B741" s="3">
-        <v>709.99</v>
-      </c>
-    </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A742" s="2">
-        <v>44205</v>
-      </c>
-      <c r="B742" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A743" s="2">
-        <v>44206</v>
-      </c>
-      <c r="B743" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A744" s="2">
-        <v>44207</v>
-      </c>
-      <c r="B744" s="3">
-        <v>713.28</v>
-      </c>
-    </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A745" s="2">
-        <v>44208</v>
-      </c>
-      <c r="B745" s="3">
-        <v>718.89</v>
-      </c>
-    </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A746" s="2">
-        <v>44209</v>
-      </c>
-      <c r="B746" s="3">
-        <v>725.24</v>
-      </c>
-    </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A747" s="2">
-        <v>44210</v>
-      </c>
-      <c r="B747" s="3">
-        <v>739.72</v>
-      </c>
-    </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A748" s="2">
-        <v>44211</v>
-      </c>
-      <c r="B748" s="3">
-        <v>735.35</v>
-      </c>
-    </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A749" s="2">
-        <v>44212</v>
-      </c>
-      <c r="B749" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A750" s="2">
-        <v>44213</v>
-      </c>
-      <c r="B750" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A751" s="2">
-        <v>44214</v>
-      </c>
-      <c r="B751" s="3">
-        <v>735.06</v>
-      </c>
-    </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A752" s="2">
-        <v>44215</v>
-      </c>
-      <c r="B752" s="3">
-        <v>736.11</v>
-      </c>
-    </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A753" s="2">
-        <v>44216</v>
-      </c>
-      <c r="B753" s="3">
-        <v>733.73</v>
-      </c>
-    </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A754" s="2">
-        <v>44217</v>
-      </c>
-      <c r="B754" s="3">
-        <v>730.38</v>
-      </c>
-    </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A755" s="2">
-        <v>44218</v>
-      </c>
-      <c r="B755" s="3">
-        <v>715.56</v>
-      </c>
-    </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A756" s="2">
-        <v>44219</v>
-      </c>
-      <c r="B756" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A757" s="2">
-        <v>44220</v>
-      </c>
-      <c r="B757" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A758" s="2">
-        <v>44221</v>
-      </c>
-      <c r="B758" s="3">
-        <v>724.26</v>
-      </c>
-    </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A759" s="2">
-        <v>44222</v>
-      </c>
-      <c r="B759" s="3">
-        <v>731.92</v>
-      </c>
-    </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A760" s="2">
-        <v>44223</v>
-      </c>
-      <c r="B760" s="3">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A761" s="2">
-        <v>44224</v>
-      </c>
-      <c r="B761" s="3">
-        <v>736.88</v>
-      </c>
-    </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A762" s="2">
-        <v>44225</v>
-      </c>
-      <c r="B762" s="3">
-        <v>741.4</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B2D90656-DD48-4ECD-BB23-8C8D4EDECED3}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A474993B-FE85-4F07-B4EB-2AD9898146C3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$762</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$762</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$773</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$773</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -970,19 +970,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B762"/>
+  <dimension ref="A1:B773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B761" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B773" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B762" sqref="B762"/>
+      <selection pane="bottomRight" activeCell="B773" sqref="B773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -7075,6 +7075,94 @@
       </c>
       <c r="B762" s="3">
         <v>741.4</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A763" s="2">
+        <v>44226</v>
+      </c>
+      <c r="B763" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A764" s="2">
+        <v>44227</v>
+      </c>
+      <c r="B764" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A765" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B765" s="3">
+        <v>734.62</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A766" s="2">
+        <v>44229</v>
+      </c>
+      <c r="B766" s="3">
+        <v>731.66</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A767" s="2">
+        <v>44230</v>
+      </c>
+      <c r="B767" s="3">
+        <v>734.86</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A768" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B768" s="3">
+        <v>730.53</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A769" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B769" s="3">
+        <v>737.23</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A770" s="2">
+        <v>44233</v>
+      </c>
+      <c r="B770" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A771" s="2">
+        <v>44234</v>
+      </c>
+      <c r="B771" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A772" s="2">
+        <v>44235</v>
+      </c>
+      <c r="B772" s="3">
+        <v>736.65</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A773" s="2">
+        <v>44236</v>
+      </c>
+      <c r="B773" s="3">
+        <v>735.07</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A474993B-FE85-4F07-B4EB-2AD9898146C3}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C6386B95-CF3D-489A-AAD0-F799B1385F99}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$773</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$773</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$776</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$776</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B773"/>
+  <dimension ref="A1:B776"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B773" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B775" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B773" sqref="B773"/>
+      <selection pane="bottomRight" activeCell="A776" sqref="A776"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7165,6 +7165,30 @@
         <v>735.07</v>
       </c>
     </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A774" s="2">
+        <v>44237</v>
+      </c>
+      <c r="B774" s="3">
+        <v>733.13</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A775" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B775" s="3">
+        <v>728.9</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A776" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B776" s="3">
+        <v>722.52</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C6386B95-CF3D-489A-AAD0-F799B1385F99}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{469D6382-657A-43E8-B559-7E31541C2B00}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$776</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$776</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$779</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$779</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B776"/>
+  <dimension ref="A1:B779"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B775" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B779" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A776" sqref="A776"/>
+      <selection pane="bottomRight" activeCell="A779" sqref="A779"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7189,6 +7189,30 @@
         <v>722.52</v>
       </c>
     </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A777" s="2">
+        <v>44240</v>
+      </c>
+      <c r="B777" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A778" s="2">
+        <v>44241</v>
+      </c>
+      <c r="B778" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A779" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B779" s="3">
+        <v>724.39</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{469D6382-657A-43E8-B559-7E31541C2B00}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{789F24B9-3952-4D25-B1E0-F42CE54DA0A7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$779</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$779</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$780</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$780</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B779"/>
+  <dimension ref="A1:B780"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B779" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A779" sqref="A779"/>
+      <selection pane="bottomRight" activeCell="B783" sqref="B783"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7213,6 +7213,14 @@
         <v>724.39</v>
       </c>
     </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A780" s="2">
+        <v>44243</v>
+      </c>
+      <c r="B780" s="3">
+        <v>718.45</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{789F24B9-3952-4D25-B1E0-F42CE54DA0A7}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AC187E75-6B3B-47CB-A5FB-77A2ED6C250F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$780</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$780</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$781</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$781</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B780"/>
+  <dimension ref="A1:B781"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B779" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B783" sqref="B783"/>
+      <selection pane="bottomRight" activeCell="A781" sqref="A781"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7221,6 +7221,14 @@
         <v>718.45</v>
       </c>
     </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A781" s="2">
+        <v>44244</v>
+      </c>
+      <c r="B781" s="3">
+        <v>717.38</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AC187E75-6B3B-47CB-A5FB-77A2ED6C250F}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{96714D36-995B-4215-9ADF-63D4AE748806}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$781</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$781</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$782</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$782</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B781"/>
+  <dimension ref="A1:B782"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B779" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A781" sqref="A781"/>
+      <selection pane="bottomRight" activeCell="A785" sqref="A785"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7229,6 +7229,14 @@
         <v>717.38</v>
       </c>
     </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A782" s="2">
+        <v>44245</v>
+      </c>
+      <c r="B782" s="3">
+        <v>719.78</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{96714D36-995B-4215-9ADF-63D4AE748806}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{30380F17-5A95-4542-AF41-1E19E9CB599F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$782</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$782</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$783</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$783</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B782"/>
+  <dimension ref="A1:B783"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B779" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B783" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A785" sqref="A785"/>
+      <selection pane="bottomRight" activeCell="A783" sqref="A783"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7237,6 +7237,14 @@
         <v>719.78</v>
       </c>
     </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A783" s="2">
+        <v>44246</v>
+      </c>
+      <c r="B783" s="3">
+        <v>712.14</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{30380F17-5A95-4542-AF41-1E19E9CB599F}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F461C022-91A8-4947-AF65-9786E51882E4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$783</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$783</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$786</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$786</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -970,7 +970,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B783"/>
+  <dimension ref="A1:B786"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B783" activePane="bottomRight" state="frozen"/>
@@ -7245,6 +7245,30 @@
         <v>712.14</v>
       </c>
     </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A784" s="2">
+        <v>44247</v>
+      </c>
+      <c r="B784" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A785" s="2">
+        <v>44248</v>
+      </c>
+      <c r="B785" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A786" s="2">
+        <v>44249</v>
+      </c>
+      <c r="B786" s="3">
+        <v>707.12</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F461C022-91A8-4947-AF65-9786E51882E4}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CE2D74FD-6415-4A84-BD9E-410EF1D53394}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$786</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$786</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$787</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$787</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,19 +970,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B786"/>
+  <dimension ref="A1:B787"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B783" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A783" sqref="A783"/>
+      <selection pane="bottomRight" activeCell="A786" sqref="A786"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -7267,6 +7267,14 @@
       </c>
       <c r="B786" s="3">
         <v>707.12</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A787" s="2">
+        <v>44250</v>
+      </c>
+      <c r="B787" s="3">
+        <v>709.65</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CE2D74FD-6415-4A84-BD9E-410EF1D53394}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{230C6260-27EC-438E-932D-D0C2D57F63B8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$787</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$787</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$788</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$788</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,19 +970,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B787"/>
+  <dimension ref="A1:B788"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B783" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B788" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A786" sqref="A786"/>
+      <selection pane="bottomRight" activeCell="A788" sqref="A788"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -7275,6 +7275,14 @@
       </c>
       <c r="B787" s="3">
         <v>709.65</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A788" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B788" s="3">
+        <v>706.76</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{230C6260-27EC-438E-932D-D0C2D57F63B8}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F489840F-0311-40EB-9E6D-67A713D54B9C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$788</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$788</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$789</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$789</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B788"/>
+  <dimension ref="A1:B789"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B788" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A788" sqref="A788"/>
+      <selection pane="bottomRight" activeCell="A789" sqref="A789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7285,6 +7285,14 @@
         <v>706.76</v>
       </c>
     </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A789" s="2">
+        <v>44252</v>
+      </c>
+      <c r="B789" s="3">
+        <v>703.65</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F489840F-0311-40EB-9E6D-67A713D54B9C}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F763AE46-F6E5-498D-95F6-8204B6060C75}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$789</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$789</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$790</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$790</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B789"/>
+  <dimension ref="A1:B790"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B788" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A789" sqref="A789"/>
+      <selection pane="bottomRight" activeCell="A790" sqref="A790"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7293,6 +7293,14 @@
         <v>703.65</v>
       </c>
     </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A790" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B790" s="3">
+        <v>708.04</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F763AE46-F6E5-498D-95F6-8204B6060C75}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{084010D3-04DD-4CF5-92E1-923C32F3A936}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$790</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$790</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$793</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$793</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -970,19 +970,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B790"/>
+  <dimension ref="A1:B793"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B788" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B793" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A790" sqref="A790"/>
+      <selection pane="bottomRight" activeCell="A793" sqref="A793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -7299,6 +7299,30 @@
       </c>
       <c r="B790" s="3">
         <v>708.04</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A791" s="2">
+        <v>44254</v>
+      </c>
+      <c r="B791" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A792" s="2">
+        <v>44255</v>
+      </c>
+      <c r="B792" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A793" s="2">
+        <v>44256</v>
+      </c>
+      <c r="B793" s="3">
+        <v>719.91</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{084010D3-04DD-4CF5-92E1-923C32F3A936}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C8C0CC13-59B4-496D-85BA-66A020527D0B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$793</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$793</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$794</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$794</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,19 +970,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B793"/>
+  <dimension ref="A1:B794"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B793" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B794" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A793" sqref="A793"/>
+      <selection pane="bottomRight" activeCell="A794" sqref="A794"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -7323,6 +7323,14 @@
       </c>
       <c r="B793" s="3">
         <v>719.91</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A794" s="2">
+        <v>44257</v>
+      </c>
+      <c r="B794" s="3">
+        <v>721.2</v>
       </c>
     </row>
   </sheetData>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C8C0CC13-59B4-496D-85BA-66A020527D0B}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E35DFD50-87BB-4F2D-9644-E749154125A9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$794</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$794</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$795</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$795</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B794"/>
+  <dimension ref="A1:B795"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B794" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B795" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A794" sqref="A794"/>
+      <selection pane="bottomRight" activeCell="A795" sqref="A795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7333,6 +7333,14 @@
         <v>721.2</v>
       </c>
     </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A795" s="2">
+        <v>44258</v>
+      </c>
+      <c r="B795" s="3">
+        <v>726.74</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E35DFD50-87BB-4F2D-9644-E749154125A9}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4E4707FD-0C5E-4FAA-87FF-28E9503276F5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$795</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$795</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$797</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$797</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B795"/>
+  <dimension ref="A1:B797"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B795" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B796" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A795" sqref="A795"/>
+      <selection pane="bottomRight" activeCell="A797" sqref="A797"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7341,6 +7341,22 @@
         <v>726.74</v>
       </c>
     </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A796" s="2">
+        <v>44259</v>
+      </c>
+      <c r="B796" s="3">
+        <v>731.3</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A797" s="2">
+        <v>44260</v>
+      </c>
+      <c r="B797" s="3">
+        <v>729.15</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4E4707FD-0C5E-4FAA-87FF-28E9503276F5}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F79C77D9-6D75-4DD3-877A-34F0C5E9753B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$797</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$797</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$800</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$800</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B797"/>
+  <dimension ref="A1:B800"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B796" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B800" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A797" sqref="A797"/>
+      <selection pane="bottomRight" activeCell="A800" sqref="A800"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7357,6 +7357,30 @@
         <v>729.15</v>
       </c>
     </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A798" s="2">
+        <v>44261</v>
+      </c>
+      <c r="B798" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A799" s="2">
+        <v>44262</v>
+      </c>
+      <c r="B799" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A800" s="2">
+        <v>44263</v>
+      </c>
+      <c r="B800" s="3">
+        <v>733.11</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F79C77D9-6D75-4DD3-877A-34F0C5E9753B}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{24FB1B98-4941-4011-B0BC-814FADBD3206}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$800</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$800</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$801</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$801</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B800"/>
+  <dimension ref="A1:B801"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B800" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B801" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A800" sqref="A800"/>
+      <selection pane="bottomRight" activeCell="A801" sqref="A801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7381,6 +7381,14 @@
         <v>733.11</v>
       </c>
     </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A801" s="2">
+        <v>44264</v>
+      </c>
+      <c r="B801" s="3">
+        <v>738.46</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{24FB1B98-4941-4011-B0BC-814FADBD3206}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{79EBD17A-34D4-4F59-9A0E-7C02DB146578}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$801</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$801</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$802</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$802</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B801"/>
+  <dimension ref="A1:B802"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B801" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A801" sqref="A801"/>
+      <selection pane="bottomRight" activeCell="A802" sqref="A802"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7389,6 +7389,14 @@
         <v>738.46</v>
       </c>
     </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A802" s="2">
+        <v>44265</v>
+      </c>
+      <c r="B802" s="3">
+        <v>733.42</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="177" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{79EBD17A-34D4-4F59-9A0E-7C02DB146578}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A06FA27E-C1AF-475C-8B90-EA65BD50E9FF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$802</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$802</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$803</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$803</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B802"/>
+  <dimension ref="A1:B803"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B801" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B803" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A802" sqref="A802"/>
+      <selection pane="bottomRight" activeCell="A803" sqref="A803"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7397,6 +7397,14 @@
         <v>733.42</v>
       </c>
     </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A803" s="2">
+        <v>44266</v>
+      </c>
+      <c r="B803" s="3">
+        <v>728.89</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A06FA27E-C1AF-475C-8B90-EA65BD50E9FF}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3F294C30-9160-4EE6-81FE-2648F4E5F9A2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$803</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$803</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$804</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$804</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B803"/>
+  <dimension ref="A1:B804"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B803" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B804" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A803" sqref="A803"/>
+      <selection pane="bottomRight" activeCell="A804" sqref="A804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7405,6 +7405,14 @@
         <v>728.89</v>
       </c>
     </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A804" s="2">
+        <v>44267</v>
+      </c>
+      <c r="B804" s="3">
+        <v>718.4</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3F294C30-9160-4EE6-81FE-2648F4E5F9A2}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7390FFDE-1CA9-49FC-8C13-275998B1906C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$804</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$804</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$807</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$807</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B804"/>
+  <dimension ref="A1:B807"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B804" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B807" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A804" sqref="A804"/>
+      <selection pane="bottomRight" activeCell="A807" sqref="A807"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7413,6 +7413,30 @@
         <v>718.4</v>
       </c>
     </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A805" s="2">
+        <v>44268</v>
+      </c>
+      <c r="B805" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A806" s="2">
+        <v>44269</v>
+      </c>
+      <c r="B806" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A807" s="2">
+        <v>44270</v>
+      </c>
+      <c r="B807" s="3">
+        <v>718.37</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7390FFDE-1CA9-49FC-8C13-275998B1906C}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{62629EC3-5F23-4685-A6F9-6950EB0CCCB4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$807</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$807</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$808</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$808</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B807"/>
+  <dimension ref="A1:B808"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B807" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B808" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A807" sqref="A807"/>
+      <selection pane="bottomRight" activeCell="A808" sqref="A808"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7437,6 +7437,14 @@
         <v>718.37</v>
       </c>
     </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A808" s="2">
+        <v>44271</v>
+      </c>
+      <c r="B808" s="3">
+        <v>721.49</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{62629EC3-5F23-4685-A6F9-6950EB0CCCB4}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D4160A2F-1ED2-4845-8873-67792B850100}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$808</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$808</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$809</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$809</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B808"/>
+  <dimension ref="A1:B809"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B808" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B809" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A808" sqref="A808"/>
+      <selection pane="bottomRight" activeCell="A809" sqref="A809"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7445,6 +7445,14 @@
         <v>721.49</v>
       </c>
     </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A809" s="2">
+        <v>44272</v>
+      </c>
+      <c r="B809" s="3">
+        <v>723.47</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D4160A2F-1ED2-4845-8873-67792B850100}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0F09D77A-A574-4EBA-87E1-1CEDCE4448A9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$809</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$809</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$810</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$810</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B809"/>
+  <dimension ref="A1:B810"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B809" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A809" sqref="A809"/>
+      <selection pane="bottomRight" activeCell="A810" sqref="A810"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7453,6 +7453,14 @@
         <v>723.47</v>
       </c>
     </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A810" s="2">
+        <v>44273</v>
+      </c>
+      <c r="B810" s="3">
+        <v>730.93</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0F09D77A-A574-4EBA-87E1-1CEDCE4448A9}"/>
+  <xr:revisionPtr revIDLastSave="195" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{21617188-2AC0-45AD-98C3-E82C15309D88}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$810</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$810</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$811</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$811</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B810"/>
+  <dimension ref="A1:B811"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B809" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B811" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A810" sqref="A810"/>
+      <selection pane="bottomRight" activeCell="A811" sqref="A811"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7461,6 +7461,14 @@
         <v>730.93</v>
       </c>
     </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A811" s="2">
+        <v>44274</v>
+      </c>
+      <c r="B811" s="3">
+        <v>724.59</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="195" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{21617188-2AC0-45AD-98C3-E82C15309D88}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B6D620BF-CC0B-4ACF-A7CC-154B36A671F8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$811</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$811</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$814</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$814</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B811"/>
+  <dimension ref="A1:B814"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B811" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B814" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A811" sqref="A811"/>
+      <selection pane="bottomRight" activeCell="A814" sqref="A814"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7469,6 +7469,30 @@
         <v>724.59</v>
       </c>
     </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A812" s="2">
+        <v>44275</v>
+      </c>
+      <c r="B812" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A813" s="2">
+        <v>44276</v>
+      </c>
+      <c r="B813" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A814" s="2">
+        <v>44277</v>
+      </c>
+      <c r="B814" s="3">
+        <v>717.96</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B6D620BF-CC0B-4ACF-A7CC-154B36A671F8}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9A125C0B-46A7-46DB-B8D5-0242492CD926}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$814</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$814</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$815</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$815</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B814"/>
+  <dimension ref="A1:B815"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B814" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B815" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A814" sqref="A814"/>
+      <selection pane="bottomRight" activeCell="A815" sqref="A815"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7493,6 +7493,14 @@
         <v>717.96</v>
       </c>
     </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A815" s="2">
+        <v>44278</v>
+      </c>
+      <c r="B815" s="3">
+        <v>716.46</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9A125C0B-46A7-46DB-B8D5-0242492CD926}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BEFD48D5-B7C5-4A2D-BC29-B705CE3359A7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="810" windowWidth="17115" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$815</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$815</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$816</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$816</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B815"/>
+  <dimension ref="A1:B816"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B815" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B816" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A815" sqref="A815"/>
+      <selection pane="bottomRight" activeCell="A816" sqref="A816"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7501,6 +7501,14 @@
         <v>716.46</v>
       </c>
     </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A816" s="2">
+        <v>44279</v>
+      </c>
+      <c r="B816" s="3">
+        <v>720.62</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BEFD48D5-B7C5-4A2D-BC29-B705CE3359A7}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CA50F994-AEFF-4A39-9C99-1E3C1F2083BF}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="810" windowWidth="17115" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="16980" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$816</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$816</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$817</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$817</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B816"/>
+  <dimension ref="A1:B817"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B816" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B817" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A816" sqref="A816"/>
+      <selection pane="bottomRight" activeCell="A817" sqref="A817"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7509,6 +7509,14 @@
         <v>720.62</v>
       </c>
     </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A817" s="2">
+        <v>44280</v>
+      </c>
+      <c r="B817" s="3">
+        <v>723.35</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CA50F994-AEFF-4A39-9C99-1E3C1F2083BF}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E1E00439-3A23-44EF-A460-4E6F513DB400}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="16980" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="810" windowWidth="16890" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$817</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$817</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$818</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$818</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B817"/>
+  <dimension ref="A1:B818"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B817" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B818" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A817" sqref="A817"/>
+      <selection pane="bottomRight" activeCell="A818" sqref="A818"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7517,6 +7517,14 @@
         <v>723.35</v>
       </c>
     </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A818" s="2">
+        <v>44281</v>
+      </c>
+      <c r="B818" s="3">
+        <v>730.82</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E1E00439-3A23-44EF-A460-4E6F513DB400}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DAF7DACB-ECFE-4E34-83AC-D5E799DA3F93}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="810" windowWidth="16890" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="780" windowWidth="16905" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$818</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$818</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$821</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$821</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B818"/>
+  <dimension ref="A1:B821"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B818" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B821" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A818" sqref="A818"/>
+      <selection pane="bottomRight" activeCell="A821" sqref="A821"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7525,6 +7525,30 @@
         <v>730.82</v>
       </c>
     </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A819" s="2">
+        <v>44282</v>
+      </c>
+      <c r="B819" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A820" s="2">
+        <v>44283</v>
+      </c>
+      <c r="B820" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A821" s="2">
+        <v>44284</v>
+      </c>
+      <c r="B821" s="3">
+        <v>729.5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DAF7DACB-ECFE-4E34-83AC-D5E799DA3F93}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A21E3F42-FBF7-43BA-BAC5-ADEA9FE83365}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="780" windowWidth="16905" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="780" windowWidth="17025" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$821</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$821</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$822</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$822</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B821"/>
+  <dimension ref="A1:B822"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B821" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B822" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A821" sqref="A821"/>
+      <selection pane="bottomRight" activeCell="A822" sqref="A822"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7549,6 +7549,14 @@
         <v>729.5</v>
       </c>
     </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A822" s="2">
+        <v>44285</v>
+      </c>
+      <c r="B822" s="3">
+        <v>736.17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A21E3F42-FBF7-43BA-BAC5-ADEA9FE83365}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{54893F93-7078-4FE9-AC26-87C429055EF7}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="780" windowWidth="17025" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="810" windowWidth="16950" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$822</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$822</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$823</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$823</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B822"/>
+  <dimension ref="A1:B823"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B822" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B823" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A822" sqref="A822"/>
+      <selection pane="bottomRight" activeCell="A823" sqref="A823"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7557,6 +7557,14 @@
         <v>736.17</v>
       </c>
     </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A823" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B823" s="3">
+        <v>732.11</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{54893F93-7078-4FE9-AC26-87C429055EF7}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{438B320A-1BB2-4FE9-984A-FE5C311A9BB4}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="810" windowWidth="16950" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="735" windowWidth="16920" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$823</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$823</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$824</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$824</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B823"/>
+  <dimension ref="A1:B824"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B823" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B824" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A823" sqref="A823"/>
+      <selection pane="bottomRight" activeCell="A824" sqref="A824"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7565,6 +7565,14 @@
         <v>732.11</v>
       </c>
     </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A824" s="2">
+        <v>44287</v>
+      </c>
+      <c r="B824" s="3">
+        <v>721.82</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="213" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{438B320A-1BB2-4FE9-984A-FE5C311A9BB4}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{25DDECC2-863B-4FA9-8766-F6F83C3F06F4}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="735" windowWidth="16920" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$824</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$824</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$828</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$828</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B824"/>
+  <dimension ref="A1:B828"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B824" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B828" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A824" sqref="A824"/>
+      <selection pane="bottomRight" activeCell="A828" sqref="A828"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7573,6 +7573,38 @@
         <v>721.82</v>
       </c>
     </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A825" s="2">
+        <v>44288</v>
+      </c>
+      <c r="B825" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A826" s="2">
+        <v>44289</v>
+      </c>
+      <c r="B826" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A827" s="2">
+        <v>44290</v>
+      </c>
+      <c r="B827" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A828" s="2">
+        <v>44291</v>
+      </c>
+      <c r="B828" s="3">
+        <v>717.12</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="215" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{25DDECC2-863B-4FA9-8766-F6F83C3F06F4}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CF7AE17D-8D6D-4C96-95BB-46E813D2AF1C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$828</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$828</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$831</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$831</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B828"/>
+  <dimension ref="A1:B831"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B828" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B831" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A828" sqref="A828"/>
+      <selection pane="bottomRight" activeCell="A831" sqref="A831"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7605,6 +7605,30 @@
         <v>717.12</v>
       </c>
     </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A829" s="2">
+        <v>44292</v>
+      </c>
+      <c r="B829" s="3">
+        <v>717.9</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A830" s="2">
+        <v>44293</v>
+      </c>
+      <c r="B830" s="3">
+        <v>718.17</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A831" s="2">
+        <v>44294</v>
+      </c>
+      <c r="B831" s="3">
+        <v>714.21</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CF7AE17D-8D6D-4C96-95BB-46E813D2AF1C}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F74660F3-5A1B-4423-95AF-6684CAB52A85}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$831</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$831</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$837</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$837</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\DOLAR_OBS_ADO.iqy" name="DOLAR_OBS_ADO" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="D:\reyes.rodriguezucv@gmail.com\OneDrive\Proyectos\Data intelligence\Covid-19\Chile\DOLAR_OBS_ADO.iqy" name="DOLAR_OBS_ADO" type="4" refreshedVersion="7" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://si3.bcentral.cl/SieteIQY/secure/carga_series_excel.aspx" post="fechaInicio=[&quot;añoInicial&quot;,&quot;Año inicial&quot;]&amp;fechaFin=[&quot;añoFinal&quot;,&quot;Año final&quot;]&amp;param=b2EwLjM3MW1sSUxHbUJIWSZSdi5fRXYkMmQtOHImMVh3S2ZrWSYuUFo3MWRMckIwY0UtWiQtVmRPNSZ6VyQkRlJINFYuMGcgUmMgeFJMT2dOIChkR2JfWiBId24gR8OzX0pYKSZ3dUpKUSNBa1lWUUtMMmd5Z19VRW9tUjNyOHRjZmtnU3hOdHJUSk4wNsOzcVVnIE4zN0ouZmNYVA==" htmlTables="1" htmlFormat="all"/>
     <parameters count="2">
       <parameter name="añoInicial" prompt="Año inicial"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B831"/>
+  <dimension ref="A1:B837"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B831" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B837" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A831" sqref="A831"/>
+      <selection pane="bottomRight" activeCell="A837" sqref="A837"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7629,6 +7629,54 @@
         <v>714.21</v>
       </c>
     </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A832" s="2">
+        <v>44295</v>
+      </c>
+      <c r="B832" s="3">
+        <v>708.09</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A833" s="2">
+        <v>44296</v>
+      </c>
+      <c r="B833" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A834" s="2">
+        <v>44297</v>
+      </c>
+      <c r="B834" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A835" s="2">
+        <v>44298</v>
+      </c>
+      <c r="B835" s="3">
+        <v>711.23</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A836" s="2">
+        <v>44299</v>
+      </c>
+      <c r="B836" s="3">
+        <v>709.51</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A837" s="2">
+        <v>44300</v>
+      </c>
+      <c r="B837" s="3">
+        <v>708.71</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F74660F3-5A1B-4423-95AF-6684CAB52A85}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A9B7367A-F547-48CC-A3B8-2A5359CBED15}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$837</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$837</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$838</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$838</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B837"/>
+  <dimension ref="A1:B838"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B837" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B838" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A837" sqref="A837"/>
+      <selection pane="bottomRight" activeCell="A838" sqref="A838"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7677,6 +7677,14 @@
         <v>708.71</v>
       </c>
     </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A838" s="2">
+        <v>44301</v>
+      </c>
+      <c r="B838" s="3">
+        <v>707.25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="230" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A9B7367A-F547-48CC-A3B8-2A5359CBED15}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4E74BFC3-53D9-4457-AFFB-8F108A8B450F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$838</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$838</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$839</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$839</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B838"/>
+  <dimension ref="A1:B839"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B838" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B839" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A838" sqref="A838"/>
+      <selection pane="bottomRight" activeCell="A839" sqref="A839"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7685,6 +7685,14 @@
         <v>707.25</v>
       </c>
     </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A839" s="2">
+        <v>44302</v>
+      </c>
+      <c r="B839" s="3">
+        <v>701.98</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="232" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4E74BFC3-53D9-4457-AFFB-8F108A8B450F}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{346A1D8C-4DA4-4061-9CFE-117F703026B7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$839</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$839</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$842</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$842</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B839"/>
+  <dimension ref="A1:B842"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B839" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B842" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A839" sqref="A839"/>
+      <selection pane="bottomRight" activeCell="A842" sqref="A842"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7693,6 +7693,30 @@
         <v>701.98</v>
       </c>
     </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A840" s="2">
+        <v>44303</v>
+      </c>
+      <c r="B840" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A841" s="2">
+        <v>44304</v>
+      </c>
+      <c r="B841" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A842" s="2">
+        <v>44305</v>
+      </c>
+      <c r="B842" s="3">
+        <v>701.55</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{346A1D8C-4DA4-4061-9CFE-117F703026B7}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A1A9D894-0ED1-4497-8C4E-0D0197998E7A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$842</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$842</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$843</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$843</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B842"/>
+  <dimension ref="A1:B843"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B842" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B843" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A842" sqref="A842"/>
+      <selection pane="bottomRight" activeCell="A843" sqref="A843"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7717,6 +7717,14 @@
         <v>701.55</v>
       </c>
     </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A843" s="2">
+        <v>44306</v>
+      </c>
+      <c r="B843" s="3">
+        <v>700.96</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="236" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A1A9D894-0ED1-4497-8C4E-0D0197998E7A}"/>
+  <xr:revisionPtr revIDLastSave="238" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4E8366BB-33BB-4E8A-8417-552FE0243CF1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$843</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$843</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$844</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$844</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B843"/>
+  <dimension ref="A1:B844"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B843" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B844" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A843" sqref="A843"/>
+      <selection pane="bottomRight" activeCell="A844" sqref="A844"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7725,6 +7725,14 @@
         <v>700.96</v>
       </c>
     </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A844" s="2">
+        <v>44307</v>
+      </c>
+      <c r="B844" s="3">
+        <v>697.19</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="238" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4E8366BB-33BB-4E8A-8417-552FE0243CF1}"/>
+  <xr:revisionPtr revIDLastSave="240" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6E8D19DB-A3EF-488C-A456-8334BDAAD0EA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$844</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$844</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$845</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$845</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B844"/>
+  <dimension ref="A1:B845"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B844" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B845" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A844" sqref="A844"/>
+      <selection pane="bottomRight" activeCell="A845" sqref="A845"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7733,6 +7733,14 @@
         <v>697.19</v>
       </c>
     </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A845" s="2">
+        <v>44308</v>
+      </c>
+      <c r="B845" s="3">
+        <v>696.8</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="240" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6E8D19DB-A3EF-488C-A456-8334BDAAD0EA}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{235B0AFF-B072-44F2-B68A-2500B50A5B9A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$845</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$845</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$846</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$846</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B845"/>
+  <dimension ref="A1:B846"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B845" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B846" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A845" sqref="A845"/>
+      <selection pane="bottomRight" activeCell="A846" sqref="A846"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7741,6 +7741,14 @@
         <v>696.8</v>
       </c>
     </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A846" s="2">
+        <v>44309</v>
+      </c>
+      <c r="B846" s="3">
+        <v>705.41</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{235B0AFF-B072-44F2-B68A-2500B50A5B9A}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{425C3755-5DD8-48B9-BE88-D7AF1F06952B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$846</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$846</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$849</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$849</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B846"/>
+  <dimension ref="A1:B849"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B846" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B849" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A846" sqref="A846"/>
+      <selection pane="bottomRight" activeCell="A849" sqref="A849"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7749,6 +7749,30 @@
         <v>705.41</v>
       </c>
     </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A847" s="2">
+        <v>44310</v>
+      </c>
+      <c r="B847" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A848" s="2">
+        <v>44311</v>
+      </c>
+      <c r="B848" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A849" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B849" s="3">
+        <v>712.54</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="246" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{425C3755-5DD8-48B9-BE88-D7AF1F06952B}"/>
+  <xr:revisionPtr revIDLastSave="248" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{998CD77B-8F97-4172-A4E2-01A20D9E98FB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$849</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$849</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$850</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$850</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B849"/>
+  <dimension ref="A1:B850"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B849" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B850" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A849" sqref="A849"/>
+      <selection pane="bottomRight" activeCell="A850" sqref="A850"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7773,6 +7773,14 @@
         <v>712.54</v>
       </c>
     </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A850" s="2">
+        <v>44313</v>
+      </c>
+      <c r="B850" s="3">
+        <v>707.05</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{998CD77B-8F97-4172-A4E2-01A20D9E98FB}"/>
+  <xr:revisionPtr revIDLastSave="250" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7F6968EB-A847-4A39-B791-2BB95A6D7F0B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$850</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$850</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$851</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$851</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B850"/>
+  <dimension ref="A1:B851"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B850" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B851" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A850" sqref="A850"/>
+      <selection pane="bottomRight" activeCell="A851" sqref="A851"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7781,6 +7781,14 @@
         <v>707.05</v>
       </c>
     </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A851" s="2">
+        <v>44314</v>
+      </c>
+      <c r="B851" s="3">
+        <v>702.02</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="250" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7F6968EB-A847-4A39-B791-2BB95A6D7F0B}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2C989CD4-3F68-4FA2-AD66-9E96406B51B7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$851</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$851</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$852</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$852</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B851"/>
+  <dimension ref="A1:B852"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B851" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B852" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A851" sqref="A851"/>
+      <selection pane="bottomRight" activeCell="A852" sqref="A852"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7789,6 +7789,14 @@
         <v>702.02</v>
       </c>
     </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A852" s="2">
+        <v>44315</v>
+      </c>
+      <c r="B852" s="3">
+        <v>700.15</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="252" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2C989CD4-3F68-4FA2-AD66-9E96406B51B7}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{15317501-D7C9-49C7-A4B2-9AA4F00BB426}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$852</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$852</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$853</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$853</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B852"/>
+  <dimension ref="A1:B853"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B852" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B853" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A852" sqref="A852"/>
+      <selection pane="bottomRight" activeCell="A853" sqref="A853"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7797,6 +7797,14 @@
         <v>700.15</v>
       </c>
     </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A853" s="2">
+        <v>44316</v>
+      </c>
+      <c r="B853" s="3">
+        <v>705.09</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="256" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{15317501-D7C9-49C7-A4B2-9AA4F00BB426}"/>
+  <xr:revisionPtr revIDLastSave="260" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{312A2F9A-834F-4938-B660-A729B1704250}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$853</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$853</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$856</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$856</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B853"/>
+  <dimension ref="A1:B856"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B853" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B856" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A853" sqref="A853"/>
+      <selection pane="bottomRight" activeCell="A856" sqref="A856"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7805,6 +7805,30 @@
         <v>705.09</v>
       </c>
     </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A854" s="2">
+        <v>44317</v>
+      </c>
+      <c r="B854" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A855" s="2">
+        <v>44318</v>
+      </c>
+      <c r="B855" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A856" s="2">
+        <v>44319</v>
+      </c>
+      <c r="B856" s="3">
+        <v>711.06</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{312A2F9A-834F-4938-B660-A729B1704250}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0C941B95-A53E-41BC-93D4-DD9080035F49}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,10 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$856</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$856</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$857</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$857</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B856"/>
+  <dimension ref="A1:B857"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B856" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B857" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A856" sqref="A856"/>
+      <selection pane="bottomRight" activeCell="A857" sqref="A857"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7829,6 +7829,14 @@
         <v>711.06</v>
       </c>
     </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A857" s="2">
+        <v>44320</v>
+      </c>
+      <c r="B857" s="3">
+        <v>706.29</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0C941B95-A53E-41BC-93D4-DD9080035F49}"/>
+  <xr:revisionPtr revIDLastSave="266" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1EB97B61-0D19-458C-A650-BFDAD08BDC36}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$857</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$857</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$858</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$858</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B857"/>
+  <dimension ref="A1:B858"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B857" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B858" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A857" sqref="A857"/>
+      <selection pane="bottomRight" activeCell="A858" sqref="A858"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7837,6 +7837,14 @@
         <v>706.29</v>
       </c>
     </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A858" s="2">
+        <v>44321</v>
+      </c>
+      <c r="B858" s="3">
+        <v>705.25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="266" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1EB97B61-0D19-458C-A650-BFDAD08BDC36}"/>
+  <xr:revisionPtr revIDLastSave="268" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F4D92471-B344-4FA7-8BDF-28FCC1E54B5F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$858</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$858</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$859</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$859</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B858"/>
+  <dimension ref="A1:B859"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B858" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B859" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A858" sqref="A858"/>
+      <selection pane="bottomRight" activeCell="A859" sqref="A859"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7845,6 +7845,14 @@
         <v>705.25</v>
       </c>
     </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A859" s="2">
+        <v>44322</v>
+      </c>
+      <c r="B859" s="3">
+        <v>703.09</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="268" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F4D92471-B344-4FA7-8BDF-28FCC1E54B5F}"/>
+  <xr:revisionPtr revIDLastSave="270" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AB5F0852-6A38-40DD-B7C2-E6485A78573A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$859</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$859</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$860</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$860</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B859"/>
+  <dimension ref="A1:B860"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B859" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B860" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A859" sqref="A859"/>
+      <selection pane="bottomRight" activeCell="A860" sqref="A860"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7853,6 +7853,14 @@
         <v>703.09</v>
       </c>
     </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A860" s="2">
+        <v>44323</v>
+      </c>
+      <c r="B860" s="3">
+        <v>701.27</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AB5F0852-6A38-40DD-B7C2-E6485A78573A}"/>
+  <xr:revisionPtr revIDLastSave="272" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C0079648-D401-4433-9008-F525B8A43B88}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$860</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$860</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$863</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$863</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="5">
   <si>
     <t>Tipos de cambio (pesos por dólar)</t>
   </si>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B860"/>
+  <dimension ref="A1:B863"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B860" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B863" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A860" sqref="A860"/>
+      <selection pane="bottomRight" activeCell="A863" sqref="A863"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7861,6 +7861,30 @@
         <v>701.27</v>
       </c>
     </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A861" s="2">
+        <v>44324</v>
+      </c>
+      <c r="B861" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A862" s="2">
+        <v>44325</v>
+      </c>
+      <c r="B862" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A863" s="2">
+        <v>44326</v>
+      </c>
+      <c r="B863" s="3">
+        <v>694.47</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="272" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C0079648-D401-4433-9008-F525B8A43B88}"/>
+  <xr:revisionPtr revIDLastSave="274" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{704E1046-6BB2-4E66-A6A8-9FF9932629E2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$863</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$863</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$864</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$864</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B863"/>
+  <dimension ref="A1:B864"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B863" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B864" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A863" sqref="A863"/>
+      <selection pane="bottomRight" activeCell="A864" sqref="A864"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7885,6 +7885,14 @@
         <v>694.47</v>
       </c>
     </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A864" s="2">
+        <v>44327</v>
+      </c>
+      <c r="B864" s="3">
+        <v>693.74</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="274" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{704E1046-6BB2-4E66-A6A8-9FF9932629E2}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7F9961F4-3145-4C55-9A60-F88F61FD53FE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$864</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$864</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$865</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$865</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B864"/>
+  <dimension ref="A1:B865"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B864" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B865" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A864" sqref="A864"/>
+      <selection pane="bottomRight" activeCell="A865" sqref="A865"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7893,6 +7893,14 @@
         <v>693.74</v>
       </c>
     </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A865" s="2">
+        <v>44328</v>
+      </c>
+      <c r="B865" s="3">
+        <v>700.04</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
+++ b/datacovidChile/IndicadoresEconomicos/DOLAR_OBS_ADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID CL/IndicadoresEconomicos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="276" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7F9961F4-3145-4C55-9A60-F88F61FD53FE}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="13_ncr:1_{C8B25996-B8C9-45E8-BF5F-0058EDDB5306}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CA6F82BC-F7AF-4384-8CE4-B781A949CF4B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="DOLAR_OBS_ADO" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$865</definedName>
-    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$865</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DOLAR_OBS_ADO!$A$3:$B$866</definedName>
+    <definedName name="DOLAR_OBS_ADO" localSheetId="0">DOLAR_OBS_ADO!$A$1:$B$866</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -970,13 +970,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B865"/>
+  <dimension ref="A1:B866"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B865" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B866" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A865" sqref="A865"/>
+      <selection pane="bottomRight" activeCell="A866" sqref="A866"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7901,6 +7901,14 @@
         <v>700.04</v>
       </c>
     </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A866" s="2">
+        <v>44329</v>
+      </c>
+      <c r="B866" s="3">
+        <v>707.19</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
